--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1624754B-50BA-CE4B-A33F-73F0B54D8020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D85777-5C97-954B-A6EF-F02BE4A3CECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59860" yWindow="4900" windowWidth="33600" windowHeight="19480" firstSheet="1" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="59860" yWindow="4900" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1851,9 +1851,6 @@
     <t>country : GBR, country:FRA, region:ASIA, country :USA</t>
   </si>
   <si>
-    <t>region=asia</t>
-  </si>
-  <si>
     <t>identifier</t>
   </si>
   <si>
@@ -1924,6 +1921,9 @@
   </si>
   <si>
     <t>Population three, old age group</t>
+  </si>
+  <si>
+    <t>region:asia</t>
   </si>
 </sst>
 </file>
@@ -2414,8 +2414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2629,7 +2629,7 @@
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -2849,10 +2849,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -2869,10 +2869,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -5557,7 +5557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED1B92D-F8EC-D24D-81E6-6B85449D22F0}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -5576,7 +5576,7 @@
         <v>553</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>481</v>
@@ -5591,27 +5591,27 @@
         <v>284</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" t="s">
         <v>605</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>606</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>607</v>
       </c>
-      <c r="F2" t="s">
-        <v>608</v>
-      </c>
       <c r="G2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -5647,36 +5647,36 @@
         <v>554</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>594</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B2" t="s">
         <v>596</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>597</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>598</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>599</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>600</v>
-      </c>
-      <c r="F2" t="s">
-        <v>601</v>
       </c>
       <c r="G2" t="s">
         <v>74</v>
@@ -5684,16 +5684,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G3" t="s">
         <v>602</v>
-      </c>
-      <c r="E3" t="s">
-        <v>600</v>
-      </c>
-      <c r="F3" t="s">
-        <v>601</v>
-      </c>
-      <c r="G3" t="s">
-        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D85777-5C97-954B-A6EF-F02BE4A3CECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890EE4C1-3D9B-2547-8E8E-6FCFB63A1329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59860" yWindow="4900" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="59860" yWindow="4900" windowWidth="33600" windowHeight="19480" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="618">
   <si>
     <t>Epoch</t>
   </si>
@@ -1924,6 +1924,18 @@
   </si>
   <si>
     <t>region:asia</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Age Criteria Error</t>
+  </si>
+  <si>
+    <t>The study age criterion with error</t>
+  </si>
+  <si>
+    <t>Subjects shall be between [min_age] and [max_agexxx]</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -5555,9 +5567,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED1B92D-F8EC-D24D-81E6-6B85449D22F0}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -5611,6 +5623,26 @@
         <v>607</v>
       </c>
       <c r="G2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G3" t="s">
         <v>595</v>
       </c>
     </row>

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890EE4C1-3D9B-2547-8E8E-6FCFB63A1329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D2A9C3-134E-8E47-B2DB-D8FE271304BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59860" yWindow="4900" windowWidth="33600" windowHeight="19480" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="617">
   <si>
     <t>Epoch</t>
   </si>
@@ -1888,9 +1888,6 @@
   </si>
   <si>
     <t>max_age</t>
-  </si>
-  <si>
-    <t>plannedMaxuímumAgeOfParticipants</t>
   </si>
   <si>
     <t>Inclusion</t>
@@ -2641,7 +2638,7 @@
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +2841,7 @@
         <v>600</v>
       </c>
       <c r="B2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -2861,10 +2858,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -2881,10 +2878,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -5569,7 +5566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED1B92D-F8EC-D24D-81E6-6B85449D22F0}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -5608,19 +5605,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" t="s">
         <v>604</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>605</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>606</v>
-      </c>
-      <c r="F2" t="s">
-        <v>607</v>
       </c>
       <c r="G2" t="s">
         <v>595</v>
@@ -5628,19 +5625,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C3" t="s">
         <v>614</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>615</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>616</v>
-      </c>
-      <c r="F3" t="s">
-        <v>617</v>
       </c>
       <c r="G3" t="s">
         <v>595</v>
@@ -5655,8 +5652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB40753-8F7D-3941-9F21-F336F33F75CC}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5725,7 +5722,7 @@
         <v>600</v>
       </c>
       <c r="G3" t="s">
-        <v>602</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D2A9C3-134E-8E47-B2DB-D8FE271304BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF67AE4-DD4F-EC44-AEE1-093F36364911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId3"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
     <sheet name="studyDesignArms" sheetId="15" r:id="rId5"/>
-    <sheet name="StudyDesignEligibilityCriteria" sheetId="19" r:id="rId6"/>
+    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId6"/>
     <sheet name="dictionaries" sheetId="23" r:id="rId7"/>
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId8"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId9"/>
@@ -2099,10 +2099,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5326,34 +5326,34 @@
       <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
@@ -5473,16 +5473,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5566,8 +5566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED1B92D-F8EC-D24D-81E6-6B85449D22F0}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5652,8 +5652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB40753-8F7D-3941-9F21-F336F33F75CC}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF67AE4-DD4F-EC44-AEE1-093F36364911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30853A72-9652-7B4C-839A-D99CEB00121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="616">
   <si>
     <t>Epoch</t>
   </si>
@@ -1861,9 +1861,6 @@
   </si>
   <si>
     <t>class</t>
-  </si>
-  <si>
-    <t>xref_or_name</t>
   </si>
   <si>
     <t>attribute</t>
@@ -2099,10 +2096,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2638,7 +2635,7 @@
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -2838,10 +2835,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -2858,10 +2855,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -2878,10 +2875,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -5326,34 +5323,34 @@
       <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
@@ -5473,16 +5470,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5566,8 +5563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED1B92D-F8EC-D24D-81E6-6B85449D22F0}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5605,42 +5602,42 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" t="s">
         <v>603</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>604</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>605</v>
       </c>
-      <c r="F2" t="s">
-        <v>606</v>
-      </c>
       <c r="G2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" t="s">
         <v>613</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>614</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>615</v>
       </c>
-      <c r="F3" t="s">
-        <v>616</v>
-      </c>
       <c r="G3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -5652,8 +5649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB40753-8F7D-3941-9F21-F336F33F75CC}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5682,30 +5679,30 @@
         <v>592</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>593</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B2" t="s">
         <v>595</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>596</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>597</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>598</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>599</v>
-      </c>
-      <c r="F2" t="s">
-        <v>600</v>
       </c>
       <c r="G2" t="s">
         <v>74</v>
@@ -5713,13 +5710,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F3" t="s">
         <v>599</v>
-      </c>
-      <c r="F3" t="s">
-        <v>600</v>
       </c>
       <c r="G3" t="s">
         <v>83</v>

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30853A72-9652-7B4C-839A-D99CEB00121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF19FE6-F9BF-5848-8A8D-2548328C644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="620">
   <si>
     <t>Epoch</t>
   </si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>endpointDescription</t>
-  </si>
-  <si>
-    <t>endpointPurposeDescription</t>
   </si>
   <si>
     <t>endpointLevel</t>
@@ -1930,6 +1927,21 @@
   </si>
   <si>
     <t>Subjects shall be between [min_age] and [max_agexxx]</t>
+  </si>
+  <si>
+    <t>objectiveLabel</t>
+  </si>
+  <si>
+    <t>objectiveText</t>
+  </si>
+  <si>
+    <t>endpointLabel</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>endpointPurpose</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +2025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2034,9 +2046,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2096,10 +2105,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2430,212 +2439,212 @@
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" style="26" customWidth="1"/>
+    <col min="5" max="6" width="24.6640625" style="25" customWidth="1"/>
     <col min="7" max="7" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="22" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" t="s">
         <v>557</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>558</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>563</v>
+      </c>
+      <c r="F17" s="26">
+        <v>44927</v>
+      </c>
+      <c r="G17" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C18" t="s">
+        <v>561</v>
+      </c>
+      <c r="D18" t="s">
+        <v>562</v>
+      </c>
+      <c r="E18" t="s">
+        <v>564</v>
+      </c>
+      <c r="F18" s="26">
+        <v>44927</v>
+      </c>
+      <c r="G18" t="s">
         <v>559</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C19" t="s">
+        <v>561</v>
+      </c>
+      <c r="D19" t="s">
+        <v>562</v>
+      </c>
+      <c r="E19" t="s">
         <v>564</v>
       </c>
-      <c r="F17" s="27">
-        <v>44927</v>
-      </c>
-      <c r="G17" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="C18" t="s">
-        <v>562</v>
-      </c>
-      <c r="D18" t="s">
-        <v>563</v>
-      </c>
-      <c r="E18" t="s">
-        <v>565</v>
-      </c>
-      <c r="F18" s="27">
-        <v>44927</v>
-      </c>
-      <c r="G18" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="C19" t="s">
-        <v>562</v>
-      </c>
-      <c r="D19" t="s">
-        <v>563</v>
-      </c>
-      <c r="E19" t="s">
-        <v>565</v>
-      </c>
-      <c r="F19" s="27">
+      <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -2661,17 +2670,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>278</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2679,7 +2688,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2687,13 +2696,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" t="s">
         <v>281</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2721,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>61</v>
@@ -2735,7 +2744,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -2749,7 +2758,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -2763,7 +2772,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -2777,7 +2786,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -2812,22 +2821,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>77</v>
       </c>
       <c r="G1" s="5"/>
@@ -2835,10 +2844,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -2855,10 +2864,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -2875,10 +2884,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -2900,407 +2909,564 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="70.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="K3" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3327,91 +3493,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
         <v>132</v>
       </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>133</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="s">
         <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
         <v>165</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
         <v>166</v>
       </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>167</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" t="s">
         <v>168</v>
-      </c>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3440,65 +3606,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
         <v>185</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" t="s">
         <v>186</v>
-      </c>
-      <c r="C2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" t="s">
         <v>188</v>
       </c>
-      <c r="B3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>190</v>
-      </c>
-      <c r="G3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3530,138 +3696,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>198</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3687,105 +3853,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>198</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3804,1238 +3970,1238 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
+      <c r="B63" s="23"/>
+      <c r="C63" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="B64" s="23"/>
+      <c r="C64" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B71" s="23"/>
+      <c r="C71" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B77" s="23"/>
+      <c r="C77" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B78" s="23"/>
+      <c r="C78" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B79" s="23"/>
+      <c r="C79" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B85" s="23"/>
+      <c r="C85" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B88" s="23"/>
+      <c r="C88" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B90" s="23"/>
+      <c r="C90" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+      <c r="B91" s="23"/>
+      <c r="C91" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B92" s="23"/>
+      <c r="C92" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
+      <c r="B93" s="23"/>
+      <c r="C93" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B94" s="23"/>
+      <c r="C94" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B95" s="23"/>
+      <c r="C95" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
+      <c r="B96" s="23"/>
+      <c r="C96" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B97" s="23"/>
+      <c r="C97" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B98" s="23"/>
+      <c r="C98" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B99" s="23"/>
+      <c r="C99" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B100" s="23"/>
+      <c r="C100" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B101" s="23"/>
+      <c r="C101" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="B102" s="23"/>
+      <c r="C102" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B103" s="23"/>
+      <c r="C103" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B104" s="23"/>
+      <c r="C104" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B105" s="23"/>
+      <c r="C105" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B106" s="23"/>
+      <c r="C106" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B107" s="23"/>
+      <c r="C107" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B96" s="24"/>
-      <c r="C96" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
+      <c r="B108" s="23"/>
+      <c r="C108" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="C109" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B110" s="23"/>
+      <c r="C110" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B111" s="23"/>
+      <c r="C111" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B112" s="23"/>
+      <c r="C112" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B113" s="23"/>
+      <c r="C113" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B115" s="23"/>
+      <c r="C115" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B116" s="23"/>
+      <c r="C116" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B117" s="23"/>
+      <c r="C117" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B118" s="23"/>
+      <c r="C118" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B119" s="23"/>
+      <c r="C119" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B120" s="23"/>
+      <c r="C120" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B121" s="23"/>
+      <c r="C121" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B122" s="23"/>
+      <c r="C122" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B123" s="23"/>
+      <c r="C123" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B124" s="23"/>
+      <c r="C124" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B106" s="24"/>
-      <c r="C106" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B110" s="24"/>
-      <c r="C110" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B112" s="24"/>
-      <c r="C112" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="s">
+      <c r="B125" s="23"/>
+      <c r="C125" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B126" s="23"/>
+      <c r="C126" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B127" s="23"/>
+      <c r="C127" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B128" s="23"/>
+      <c r="C128" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B129" s="23"/>
+      <c r="C129" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B130" s="23"/>
+      <c r="C130" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B131" s="23"/>
+      <c r="C131" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B132" s="23"/>
+      <c r="C132" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B114" s="24"/>
-      <c r="C114" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B116" s="24"/>
-      <c r="C116" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B117" s="24"/>
-      <c r="C117" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B120" s="24"/>
-      <c r="C120" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B121" s="24"/>
-      <c r="C121" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B122" s="24"/>
-      <c r="C122" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B123" s="24"/>
-      <c r="C123" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B125" s="24"/>
-      <c r="C125" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B127" s="24"/>
-      <c r="C127" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B128" s="24"/>
-      <c r="C128" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B129" s="24"/>
-      <c r="C129" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B132" s="24"/>
-      <c r="C132" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
-        <v>548</v>
+      <c r="A134" s="10" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
-        <v>548</v>
+      <c r="A135" s="10" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="11" t="s">
-        <v>548</v>
+      <c r="A136" s="10" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
-        <v>548</v>
+      <c r="A137" s="10" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
-        <v>548</v>
+      <c r="A138" s="10" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -5059,18 +5225,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
         <v>160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5097,103 +5263,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>581</v>
-      </c>
-      <c r="G1" s="11"/>
+      <c r="F1" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="G2" s="11"/>
+      <c r="B2" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="G3" s="11"/>
+      <c r="B3" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="G4" s="11"/>
+      <c r="F4" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="G5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="G5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5218,22 +5384,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5248,7 +5414,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -5268,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -5298,116 +5464,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>220</v>
+      <c r="A12" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5427,16 +5593,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5444,16 +5610,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5470,16 +5636,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5501,20 +5667,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5522,16 +5688,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5542,17 +5708,17 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5578,66 +5744,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="F1" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>589</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" t="s">
         <v>602</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>603</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>604</v>
       </c>
-      <c r="F2" t="s">
-        <v>605</v>
-      </c>
       <c r="G2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C3" t="s">
         <v>612</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>613</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>614</v>
       </c>
-      <c r="F3" t="s">
-        <v>615</v>
-      </c>
       <c r="G3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -5649,7 +5815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB40753-8F7D-3941-9F21-F336F33F75CC}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -5663,46 +5829,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>592</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" t="s">
         <v>594</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>595</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>596</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>597</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>598</v>
-      </c>
-      <c r="F2" t="s">
-        <v>599</v>
       </c>
       <c r="G2" t="s">
         <v>74</v>
@@ -5710,13 +5876,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F3" t="s">
         <v>598</v>
-      </c>
-      <c r="F3" t="s">
-        <v>599</v>
       </c>
       <c r="G3" t="s">
         <v>83</v>
@@ -5743,14 +5909,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5758,10 +5924,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5769,10 +5935,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5780,10 +5946,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5791,10 +5957,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5823,13 +5989,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5838,22 +6004,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5873,13 +6039,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5899,9 +6065,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5921,9 +6087,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5943,9 +6109,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -5965,32 +6131,32 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
-        <v>218</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -6004,14 +6170,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>219</v>
+      <c r="C9" s="21" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF19FE6-F9BF-5848-8A8D-2548328C644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FEFA7B-1B46-A747-9FB7-293AB149962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>trialTypes</t>
   </si>
   <si>
-    <t>line|city|district|state|postal_code|GBR</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
   </si>
   <si>
     <t>AP1234</t>
-  </si>
-  <si>
-    <t>Somewhere|In a City|In a District|In a big state|12345|FRA</t>
   </si>
   <si>
     <t>organisationAddress</t>
@@ -1942,6 +1936,12 @@
   </si>
   <si>
     <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>line|district|city|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
 </sst>
 </file>
@@ -2105,10 +2105,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2445,10 +2445,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2472,7 +2472,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2480,68 +2480,68 @@
         <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2549,102 +2549,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>554</v>
-      </c>
       <c r="G16" s="18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C17" t="s">
         <v>555</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" t="s">
         <v>556</v>
       </c>
-      <c r="C17" t="s">
-        <v>557</v>
-      </c>
-      <c r="D17" t="s">
-        <v>558</v>
-      </c>
       <c r="E17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D18" t="s">
         <v>560</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="C18" t="s">
-        <v>561</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>562</v>
-      </c>
-      <c r="E18" t="s">
-        <v>564</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C19" t="s">
+        <v>559</v>
+      </c>
+      <c r="D19" t="s">
         <v>560</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="C19" t="s">
-        <v>561</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>562</v>
-      </c>
-      <c r="E19" t="s">
-        <v>564</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -2671,16 +2671,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>276</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2688,7 +2688,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2696,13 +2696,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2730,72 +2730,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2822,84 +2822,84 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>74</v>
-      </c>
       <c r="E1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
         <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2911,7 +2911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -2931,85 +2931,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>617</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>618</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>619</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3018,16 +3018,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3036,16 +3036,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3054,16 +3054,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3072,16 +3072,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3090,16 +3090,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3108,16 +3108,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3126,16 +3126,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3144,16 +3144,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3162,16 +3162,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3180,16 +3180,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3494,90 +3494,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" t="s">
         <v>132</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
         <v>164</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>165</v>
       </c>
-      <c r="C5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" t="s">
         <v>166</v>
-      </c>
-      <c r="E5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3606,65 +3606,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" t="s">
         <v>184</v>
-      </c>
-      <c r="B2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>188</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3697,137 +3697,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3854,104 +3854,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3978,16 +3978,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3996,1212 +3996,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -5225,18 +5225,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
         <v>159</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5264,22 +5264,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>571</v>
-      </c>
       <c r="F1" s="28" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -5288,17 +5288,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>573</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>575</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5307,17 +5307,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -5326,19 +5326,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>579</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -5347,17 +5347,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -5370,8 +5370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5400,7 +5400,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5414,33 +5414,33 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -5465,10 +5465,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -5476,10 +5476,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -5489,41 +5489,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -5534,7 +5534,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -5545,7 +5545,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -5553,10 +5553,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5593,16 +5593,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5610,16 +5610,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5636,16 +5636,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5668,19 +5668,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5688,16 +5688,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5708,13 +5708,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5745,65 +5745,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C2" t="s">
         <v>600</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" t="s">
         <v>601</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>602</v>
       </c>
-      <c r="D2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F2" t="s">
-        <v>604</v>
-      </c>
       <c r="G2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" t="s">
         <v>611</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>612</v>
       </c>
-      <c r="D3" t="s">
-        <v>613</v>
-      </c>
-      <c r="F3" t="s">
-        <v>614</v>
-      </c>
       <c r="G3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -5830,62 +5830,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>590</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C2" t="s">
         <v>593</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>594</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>595</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>596</v>
       </c>
-      <c r="E2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F2" t="s">
-        <v>598</v>
-      </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5910,13 +5910,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>254</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5924,10 +5924,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5935,10 +5935,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5946,10 +5946,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5957,10 +5957,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5990,10 +5990,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -6014,10 +6014,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -6040,10 +6040,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -6134,29 +6134,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -6177,7 +6177,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6188,7 +6188,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FEFA7B-1B46-A747-9FB7-293AB149962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D7246A-68DE-4A4C-ACBD-39BD39FEA079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -23,15 +23,16 @@
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId8"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId9"/>
     <sheet name="studyDesignActivities" sheetId="16" r:id="rId10"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId11"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId12"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId13"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId14"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId15"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId16"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId17"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId18"/>
-    <sheet name="configuration" sheetId="10" r:id="rId19"/>
+    <sheet name="studyDesignInterventions" sheetId="24" r:id="rId11"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId12"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId13"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId14"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId15"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId16"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId17"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId18"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId19"/>
+    <sheet name="configuration" sheetId="10" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="657">
   <si>
     <t>Epoch</t>
   </si>
@@ -236,34 +237,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
-  </si>
-  <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
   </si>
   <si>
     <t>populationDescription</t>
@@ -1943,12 +1926,141 @@
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1992,6 +2104,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2025,7 +2143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2105,14 +2223,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2445,10 +2565,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2485,63 +2605,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2549,102 +2669,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C17" t="s">
+        <v>549</v>
+      </c>
+      <c r="D17" t="s">
+        <v>550</v>
+      </c>
+      <c r="E17" t="s">
         <v>555</v>
-      </c>
-      <c r="D17" t="s">
-        <v>556</v>
-      </c>
-      <c r="E17" t="s">
-        <v>561</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C18" t="s">
+        <v>553</v>
+      </c>
+      <c r="D18" t="s">
         <v>554</v>
       </c>
-      <c r="C18" t="s">
-        <v>559</v>
-      </c>
-      <c r="D18" t="s">
-        <v>560</v>
-      </c>
       <c r="E18" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C19" t="s">
+        <v>553</v>
+      </c>
+      <c r="D19" t="s">
         <v>554</v>
       </c>
-      <c r="C19" t="s">
-        <v>559</v>
-      </c>
-      <c r="D19" t="s">
-        <v>560</v>
-      </c>
       <c r="E19" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -2671,16 +2791,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2688,7 +2808,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2696,13 +2816,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2715,87 +2835,212 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB816BA-E6DF-9E47-812C-CA837B9CA1A1}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>632</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+      <c r="D2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="G2" t="s">
+        <v>637</v>
+      </c>
+      <c r="H2" t="s">
+        <v>638</v>
+      </c>
+      <c r="I2" t="s">
+        <v>639</v>
+      </c>
+      <c r="J2" t="s">
+        <v>640</v>
+      </c>
+      <c r="K2" t="s">
+        <v>641</v>
+      </c>
+      <c r="L2" t="s">
+        <v>642</v>
+      </c>
+      <c r="M2" t="s">
+        <v>643</v>
+      </c>
+      <c r="N2" t="s">
+        <v>644</v>
+      </c>
+      <c r="O2" t="s">
+        <v>645</v>
+      </c>
+      <c r="P2" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>181</v>
+      </c>
+      <c r="R2" t="s">
+        <v>647</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>649</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>650</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
+        <v>634</v>
+      </c>
+      <c r="E3" t="s">
+        <v>651</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="G3" t="s">
+        <v>637</v>
+      </c>
+      <c r="H3" t="s">
+        <v>652</v>
+      </c>
+      <c r="I3" t="s">
+        <v>639</v>
+      </c>
+      <c r="J3" t="s">
+        <v>653</v>
+      </c>
+      <c r="K3" t="s">
+        <v>654</v>
+      </c>
+      <c r="L3" t="s">
+        <v>655</v>
+      </c>
+      <c r="M3" t="s">
+        <v>643</v>
+      </c>
+      <c r="N3" t="s">
+        <v>644</v>
+      </c>
+      <c r="O3" t="s">
+        <v>645</v>
+      </c>
+      <c r="P3" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" t="s">
+        <v>647</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -2804,6 +3049,68 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -2822,84 +3129,84 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B4" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2907,7 +3214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2931,85 +3238,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3018,16 +3325,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3036,16 +3343,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3054,16 +3361,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3072,16 +3379,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3090,16 +3397,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3108,16 +3415,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3126,16 +3433,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3144,16 +3451,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3162,16 +3469,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3180,16 +3487,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3474,7 +3781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3494,90 +3801,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" t="s">
-        <v>135</v>
-      </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
         <v>108</v>
       </c>
-      <c r="G5" t="s">
-        <v>114</v>
-      </c>
       <c r="H5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3585,7 +3892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3606,65 +3913,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3677,7 +3984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3697,137 +4004,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>190</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3836,7 +4143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3854,104 +4161,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3960,7 +4267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
@@ -3978,16 +4285,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3996,1250 +4303,1216 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5264,22 +5537,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -5288,17 +5561,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5307,17 +5580,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -5326,19 +5599,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>577</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>583</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -5347,19 +5620,53 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G5" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5370,7 +5677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
@@ -5414,13 +5721,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5434,13 +5741,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -5465,10 +5772,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -5476,10 +5783,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -5489,41 +5796,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -5534,7 +5841,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -5545,7 +5852,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -5553,10 +5860,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -5564,7 +5871,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5573,7 +5880,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5593,16 +5900,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5610,16 +5917,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5636,16 +5943,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5668,19 +5975,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5688,16 +5995,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5708,13 +6015,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5745,65 +6052,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C3" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F3" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -5830,62 +6137,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C2" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="E3" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F3" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5910,13 +6217,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5924,10 +6231,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5935,10 +6242,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5946,10 +6253,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5957,10 +6264,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -5990,10 +6297,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -6014,10 +6321,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -6040,10 +6347,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -6134,29 +6441,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -6177,7 +6484,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D7246A-68DE-4A4C-ACBD-39BD39FEA079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B46DF8D-79C5-534E-8946-FF870A3D03D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="658">
   <si>
     <t>Epoch</t>
   </si>
@@ -252,34 +252,19 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
     <t>plannedMinimumAgeOfParticipants</t>
   </si>
   <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>70 years</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>plannedMaximumAgeOfParticipants</t>
@@ -1876,21 +1861,6 @@
     <t>Subjects shall be between [min_age] and [max_age]</t>
   </si>
   <si>
-    <t>POP2</t>
-  </si>
-  <si>
-    <t>POP3</t>
-  </si>
-  <si>
-    <t>Population One, low age group</t>
-  </si>
-  <si>
-    <t>Population two, medium age group</t>
-  </si>
-  <si>
-    <t>Population three, old age group</t>
-  </si>
-  <si>
     <t>region:asia</t>
   </si>
   <si>
@@ -2054,6 +2024,39 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>31 years</t>
   </si>
 </sst>
 </file>
@@ -2219,20 +2222,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2565,10 +2568,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2605,63 +2608,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2669,102 +2672,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C17" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D17" t="s">
+        <v>545</v>
+      </c>
+      <c r="E17" t="s">
         <v>550</v>
-      </c>
-      <c r="E17" t="s">
-        <v>555</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C18" t="s">
         <v>548</v>
       </c>
-      <c r="C18" t="s">
-        <v>553</v>
-      </c>
       <c r="D18" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E18" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C19" t="s">
         <v>548</v>
       </c>
-      <c r="C19" t="s">
-        <v>553</v>
-      </c>
       <c r="D19" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E19" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -2791,16 +2794,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2808,7 +2811,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2816,13 +2819,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2838,7 +2841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB816BA-E6DF-9E47-812C-CA837B9CA1A1}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2868,179 +2871,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q1" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>621</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>622</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>623</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>624</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>628</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>629</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>630</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="G2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H2" t="s">
+        <v>628</v>
+      </c>
+      <c r="I2" t="s">
+        <v>629</v>
+      </c>
+      <c r="J2" t="s">
+        <v>630</v>
+      </c>
+      <c r="K2" t="s">
+        <v>631</v>
+      </c>
+      <c r="L2" t="s">
         <v>632</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
         <v>633</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>634</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>635</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="P2" t="s">
         <v>636</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
+        <v>176</v>
+      </c>
+      <c r="R2" t="s">
         <v>637</v>
       </c>
-      <c r="H2" t="s">
+      <c r="S2" s="30" t="s">
         <v>638</v>
-      </c>
-      <c r="I2" t="s">
-        <v>639</v>
-      </c>
-      <c r="J2" t="s">
-        <v>640</v>
-      </c>
-      <c r="K2" t="s">
-        <v>641</v>
-      </c>
-      <c r="L2" t="s">
-        <v>642</v>
-      </c>
-      <c r="M2" t="s">
-        <v>643</v>
-      </c>
-      <c r="N2" t="s">
-        <v>644</v>
-      </c>
-      <c r="O2" t="s">
-        <v>645</v>
-      </c>
-      <c r="P2" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>181</v>
-      </c>
-      <c r="R2" t="s">
-        <v>647</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C3" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="D3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="G3" t="s">
+        <v>627</v>
+      </c>
+      <c r="H3" t="s">
+        <v>642</v>
+      </c>
+      <c r="I3" t="s">
+        <v>629</v>
+      </c>
+      <c r="J3" t="s">
+        <v>643</v>
+      </c>
+      <c r="K3" t="s">
+        <v>644</v>
+      </c>
+      <c r="L3" t="s">
+        <v>645</v>
+      </c>
+      <c r="M3" t="s">
+        <v>633</v>
+      </c>
+      <c r="N3" t="s">
         <v>634</v>
       </c>
-      <c r="E3" t="s">
-        <v>651</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
+        <v>635</v>
+      </c>
+      <c r="P3" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>176</v>
+      </c>
+      <c r="R3" t="s">
         <v>637</v>
       </c>
-      <c r="H3" t="s">
-        <v>652</v>
-      </c>
-      <c r="I3" t="s">
-        <v>639</v>
-      </c>
-      <c r="J3" t="s">
-        <v>653</v>
-      </c>
-      <c r="K3" t="s">
-        <v>654</v>
-      </c>
-      <c r="L3" t="s">
-        <v>655</v>
-      </c>
-      <c r="M3" t="s">
-        <v>643</v>
-      </c>
-      <c r="N3" t="s">
-        <v>644</v>
-      </c>
-      <c r="O3" t="s">
-        <v>645</v>
-      </c>
-      <c r="P3" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>181</v>
-      </c>
-      <c r="R3" t="s">
-        <v>647</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>648</v>
+      <c r="S3" s="30" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -3065,13 +3068,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
@@ -3079,13 +3082,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C2" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -3093,13 +3096,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C3" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
@@ -3112,101 +3115,96 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="21" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B3" t="s">
+        <v>654</v>
+      </c>
+      <c r="G3" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="H3" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B4" t="s">
+        <v>656</v>
+      </c>
+      <c r="G4" t="s">
+        <v>657</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>597</v>
-      </c>
-      <c r="B3" t="s">
-        <v>600</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>598</v>
-      </c>
-      <c r="B4" t="s">
-        <v>601</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3238,85 +3236,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3325,16 +3323,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3343,16 +3341,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3361,16 +3359,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3379,16 +3377,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3397,16 +3395,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3415,16 +3413,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3433,16 +3431,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3451,16 +3449,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3469,16 +3467,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3487,16 +3485,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3801,90 +3799,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
         <v>124</v>
       </c>
-      <c r="D2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" t="s">
-        <v>129</v>
-      </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3913,65 +3911,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" t="s">
         <v>177</v>
-      </c>
-      <c r="C3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4004,137 +4002,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>185</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4161,104 +4159,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4285,16 +4283,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -4303,1212 +4301,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -5537,22 +5535,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -5561,17 +5559,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5580,17 +5578,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -5599,19 +5597,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -5620,17 +5618,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -5654,18 +5652,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5721,13 +5719,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5741,13 +5739,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -5772,115 +5770,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+        <v>233</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+        <v>159</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+        <v>160</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5900,16 +5898,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5917,16 +5915,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5943,16 +5941,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5975,19 +5973,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5995,16 +5993,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6015,13 +6013,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -6052,65 +6050,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="C3" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="D3" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F3" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="G3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -6137,62 +6135,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2" t="s">
         <v>585</v>
       </c>
-      <c r="B2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C2" t="s">
-        <v>587</v>
-      </c>
-      <c r="D2" t="s">
-        <v>588</v>
-      </c>
-      <c r="E2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F2" t="s">
-        <v>590</v>
-      </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E3" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F3" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6217,13 +6215,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6231,10 +6229,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6242,10 +6240,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6253,10 +6251,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6264,10 +6262,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -6297,10 +6295,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -6311,20 +6309,20 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -6347,10 +6345,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -6441,29 +6439,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -6484,7 +6482,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B46DF8D-79C5-534E-8946-FF870A3D03D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CAC50C-C67B-6645-9CE6-44473BA2AFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1795,15 +1795,6 @@
     <t>Other=Fix typographical errors</t>
   </si>
   <si>
-    <t>Global: 65%</t>
-  </si>
-  <si>
-    <t>Region: Europe=15, Country: USA=20%</t>
-  </si>
-  <si>
-    <t>Global:31%</t>
-  </si>
-  <si>
     <t>Region: Europe=0</t>
   </si>
   <si>
@@ -2057,6 +2048,15 @@
   </si>
   <si>
     <t>31 years</t>
+  </si>
+  <si>
+    <t>Global: 65 %</t>
+  </si>
+  <si>
+    <t>Region: Europe=15, Country: USA=20 %</t>
+  </si>
+  <si>
+    <t>Global:31 %</t>
   </si>
 </sst>
 </file>
@@ -2228,10 +2228,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2721,7 +2721,7 @@
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2767,7 +2767,7 @@
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -2883,49 +2883,49 @@
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>612</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>617</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>618</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>619</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>620</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2933,58 +2933,58 @@
         <v>95</v>
       </c>
       <c r="B2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2" t="s">
         <v>622</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="29" t="s">
         <v>623</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>624</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>625</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="I2" t="s">
         <v>626</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>627</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>628</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>629</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>630</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>631</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>632</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>633</v>
-      </c>
-      <c r="N2" t="s">
-        <v>634</v>
-      </c>
-      <c r="O2" t="s">
-        <v>635</v>
-      </c>
-      <c r="P2" t="s">
-        <v>636</v>
       </c>
       <c r="Q2" t="s">
         <v>176</v>
       </c>
       <c r="R2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -2992,58 +2992,58 @@
         <v>97</v>
       </c>
       <c r="B3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="G3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H3" t="s">
         <v>639</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
+        <v>626</v>
+      </c>
+      <c r="J3" t="s">
         <v>640</v>
       </c>
-      <c r="D3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="K3" t="s">
         <v>641</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>626</v>
-      </c>
-      <c r="G3" t="s">
-        <v>627</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>642</v>
       </c>
-      <c r="I3" t="s">
-        <v>629</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>630</v>
+      </c>
+      <c r="N3" t="s">
+        <v>631</v>
+      </c>
+      <c r="O3" t="s">
+        <v>632</v>
+      </c>
+      <c r="P3" t="s">
         <v>643</v>
-      </c>
-      <c r="K3" t="s">
-        <v>644</v>
-      </c>
-      <c r="L3" t="s">
-        <v>645</v>
-      </c>
-      <c r="M3" t="s">
-        <v>633</v>
-      </c>
-      <c r="N3" t="s">
-        <v>634</v>
-      </c>
-      <c r="O3" t="s">
-        <v>635</v>
-      </c>
-      <c r="P3" t="s">
-        <v>646</v>
       </c>
       <c r="Q3" t="s">
         <v>176</v>
       </c>
       <c r="R3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -3085,10 +3085,10 @@
         <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -3099,10 +3099,10 @@
         <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
@@ -3117,7 +3117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -3134,7 +3134,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>467</v>
@@ -3146,16 +3146,16 @@
         <v>540</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>648</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>651</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>67</v>
@@ -3163,10 +3163,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3181,27 +3181,27 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G3" t="s">
         <v>66</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B4" t="s">
         <v>653</v>
       </c>
-      <c r="B4" t="s">
-        <v>656</v>
-      </c>
       <c r="G4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>69</v>
@@ -3242,10 +3242,10 @@
         <v>71</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>72</v>
@@ -3257,13 +3257,13 @@
         <v>73</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>74</v>
@@ -5519,8 +5519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>571</v>
+        <v>656</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -5609,7 +5609,7 @@
         <v>566</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>572</v>
+        <v>657</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -5725,7 +5725,7 @@
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5745,7 +5745,7 @@
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -5794,34 +5794,34 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5941,16 +5941,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6053,7 +6053,7 @@
         <v>539</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>467</v>
@@ -6068,47 +6068,47 @@
         <v>270</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" t="s">
         <v>587</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="F2" t="s">
         <v>588</v>
       </c>
-      <c r="C2" t="s">
-        <v>589</v>
-      </c>
-      <c r="D2" t="s">
-        <v>590</v>
-      </c>
-      <c r="F2" t="s">
-        <v>591</v>
-      </c>
       <c r="G2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F3" t="s">
         <v>593</v>
       </c>
-      <c r="C3" t="s">
-        <v>594</v>
-      </c>
-      <c r="D3" t="s">
-        <v>595</v>
-      </c>
-      <c r="F3" t="s">
-        <v>596</v>
-      </c>
       <c r="G3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -6144,36 +6144,36 @@
         <v>540</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>93</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D2" t="s">
         <v>580</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>581</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>582</v>
-      </c>
-      <c r="D2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F2" t="s">
-        <v>585</v>
       </c>
       <c r="G2" t="s">
         <v>65</v>
@@ -6181,13 +6181,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G3" t="s">
         <v>70</v>

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CAC50C-C67B-6645-9CE6-44473BA2AFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B737B13-C9E7-4C45-AF41-8AE1475AFA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="655">
   <si>
     <t>Epoch</t>
   </si>
@@ -255,16 +255,10 @@
     <t>plannedMinimumAgeOfParticipants</t>
   </si>
   <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
-  </si>
-  <si>
-    <t>70 years</t>
   </si>
   <si>
     <t>plannedMaximumAgeOfParticipants</t>
@@ -2026,12 +2020,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -2041,15 +2029,9 @@
     <t>COHORT1</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
     <t>COHORT2</t>
   </si>
   <si>
-    <t>31 years</t>
-  </si>
-  <si>
     <t>Global: 65 %</t>
   </si>
   <si>
@@ -2057,6 +2039,15 @@
   </si>
   <si>
     <t>Global:31 %</t>
+  </si>
+  <si>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
   </si>
 </sst>
 </file>
@@ -2228,10 +2219,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2568,10 +2559,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2608,63 +2599,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>30</v>
@@ -2672,102 +2663,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C17" t="s">
         <v>542</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" t="s">
         <v>543</v>
       </c>
-      <c r="C17" t="s">
-        <v>544</v>
-      </c>
-      <c r="D17" t="s">
-        <v>545</v>
-      </c>
       <c r="E17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C18" t="s">
+        <v>546</v>
+      </c>
+      <c r="D18" t="s">
         <v>547</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C18" t="s">
-        <v>548</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>549</v>
-      </c>
-      <c r="E18" t="s">
-        <v>551</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C19" t="s">
+        <v>546</v>
+      </c>
+      <c r="D19" t="s">
         <v>547</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C19" t="s">
-        <v>548</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>549</v>
-      </c>
-      <c r="E19" t="s">
-        <v>551</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -2794,16 +2785,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>263</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2811,7 +2802,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2819,13 +2810,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2871,179 +2862,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>612</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>616</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>617</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D2" t="s">
         <v>619</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>620</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="29" t="s">
         <v>621</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>622</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="H2" t="s">
         <v>623</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>624</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>625</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>626</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>627</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>628</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>629</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>630</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>631</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" t="s">
         <v>632</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="30" t="s">
         <v>633</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>176</v>
-      </c>
-      <c r="R2" t="s">
-        <v>634</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E3" t="s">
         <v>636</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="29" t="s">
+        <v>621</v>
+      </c>
+      <c r="G3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H3" t="s">
         <v>637</v>
       </c>
-      <c r="D3" t="s">
-        <v>621</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>624</v>
+      </c>
+      <c r="J3" t="s">
         <v>638</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="G3" t="s">
-        <v>624</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>639</v>
       </c>
-      <c r="I3" t="s">
-        <v>626</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>640</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>628</v>
+      </c>
+      <c r="N3" t="s">
+        <v>629</v>
+      </c>
+      <c r="O3" t="s">
+        <v>630</v>
+      </c>
+      <c r="P3" t="s">
         <v>641</v>
       </c>
-      <c r="L3" t="s">
-        <v>642</v>
-      </c>
-      <c r="M3" t="s">
-        <v>630</v>
-      </c>
-      <c r="N3" t="s">
-        <v>631</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" t="s">
         <v>632</v>
       </c>
-      <c r="P3" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>176</v>
-      </c>
-      <c r="R3" t="s">
-        <v>634</v>
-      </c>
       <c r="S3" s="30" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -3068,13 +3059,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>61</v>
@@ -3082,13 +3073,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -3096,13 +3087,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>63</v>
@@ -3115,10 +3106,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3128,45 +3119,42 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>645</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>649</v>
-      </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3174,37 +3162,30 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B4" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G4" t="s">
         <v>654</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3236,85 +3217,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>596</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>597</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>598</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3323,16 +3304,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3341,16 +3322,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3359,16 +3340,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3377,16 +3358,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3395,16 +3376,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3413,16 +3394,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3431,16 +3412,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3449,16 +3430,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3467,16 +3448,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3485,16 +3466,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3799,90 +3780,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
         <v>118</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
         <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>152</v>
       </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" t="s">
         <v>153</v>
-      </c>
-      <c r="E5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3911,65 +3892,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" t="s">
         <v>171</v>
-      </c>
-      <c r="B2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>175</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4002,137 +3983,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>183</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4159,104 +4140,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4283,16 +4264,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -4301,1212 +4282,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>536</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -5519,7 +5500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -5535,22 +5516,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>558</v>
-      </c>
       <c r="F1" s="28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -5559,17 +5540,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>560</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>562</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5578,17 +5559,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -5597,19 +5578,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>566</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -5618,17 +5599,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -5652,18 +5633,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
         <v>146</v>
-      </c>
-      <c r="B1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5719,13 +5700,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5739,13 +5720,13 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -5770,10 +5751,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -5781,10 +5762,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -5794,41 +5775,41 @@
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="B5" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -5839,7 +5820,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -5850,7 +5831,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -5858,10 +5839,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -5869,7 +5850,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -5878,7 +5859,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>43</v>
@@ -5898,16 +5879,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5915,16 +5896,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5941,16 +5922,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5973,19 +5954,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>254</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5993,16 +5974,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6013,13 +5994,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -6050,65 +6031,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" t="s">
         <v>584</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" t="s">
         <v>585</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>586</v>
       </c>
-      <c r="D2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F2" t="s">
-        <v>588</v>
-      </c>
       <c r="G2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D3" t="s">
         <v>590</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>591</v>
       </c>
-      <c r="D3" t="s">
-        <v>592</v>
-      </c>
-      <c r="F3" t="s">
-        <v>593</v>
-      </c>
       <c r="G3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -6135,45 +6116,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>574</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C2" t="s">
         <v>577</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>578</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>579</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>580</v>
-      </c>
-      <c r="E2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F2" t="s">
-        <v>582</v>
       </c>
       <c r="G2" t="s">
         <v>65</v>
@@ -6181,16 +6162,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6215,13 +6196,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>241</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6229,10 +6210,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6240,10 +6221,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6251,10 +6232,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6262,10 +6243,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -6295,10 +6276,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -6319,10 +6300,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -6345,10 +6326,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -6439,29 +6420,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -6482,7 +6463,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B737B13-C9E7-4C45-AF41-8AE1475AFA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D8CFC2-2F49-984B-B722-AFCA68205D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36160" yWindow="5100" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="53400" yWindow="5420" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -22,17 +22,18 @@
     <sheet name="dictionaries" sheetId="23" r:id="rId7"/>
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId8"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId9"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId10"/>
-    <sheet name="studyDesignInterventions" sheetId="24" r:id="rId11"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId12"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId13"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId14"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId15"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId16"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId17"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId18"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId19"/>
-    <sheet name="configuration" sheetId="10" r:id="rId20"/>
+    <sheet name="studyDesignTiming" sheetId="25" r:id="rId10"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId11"/>
+    <sheet name="studyDesignInterventions" sheetId="24" r:id="rId12"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId13"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId14"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId15"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId16"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId17"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId18"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId19"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId20"/>
+    <sheet name="configuration" sheetId="10" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,10 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="655">
-  <si>
-    <t>Epoch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="681">
   <si>
     <t>Screening</t>
   </si>
@@ -66,15 +64,6 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Cycle End Rule</t>
-  </si>
-  <si>
-    <t>A:</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -84,9 +73,6 @@
     <t>Child Activity</t>
   </si>
   <si>
-    <t>N: 0..2 Days</t>
-  </si>
-  <si>
     <t>Demographics</t>
   </si>
   <si>
@@ -99,36 +85,12 @@
     <t>15 min</t>
   </si>
   <si>
-    <t>P: +24 Hours</t>
-  </si>
-  <si>
-    <t>0..4 Hours</t>
-  </si>
-  <si>
-    <t>N: Pre Dose</t>
-  </si>
-  <si>
     <t>Day 24</t>
   </si>
   <si>
     <t>Day 35</t>
   </si>
   <si>
-    <t>P: +7 Days</t>
-  </si>
-  <si>
-    <t>-3..3 Days</t>
-  </si>
-  <si>
-    <t>First Cycle Start</t>
-  </si>
-  <si>
-    <t>Cycle Period</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -658,12 +620,6 @@
   </si>
   <si>
     <t>E5</t>
-  </si>
-  <si>
-    <t>Encounter xref</t>
-  </si>
-  <si>
-    <t>Window</t>
   </si>
   <si>
     <t>BC/Procedure/Timeline</t>
@@ -2048,6 +2004,129 @@
   </si>
   <si>
     <t>31 .. 70 years</t>
+  </si>
+  <si>
+    <t>SCREEN</t>
+  </si>
+  <si>
+    <t>PRE DOSE</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Pre Dose</t>
+  </si>
+  <si>
+    <t>Dosing</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>(EXIT)</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>timingValue</t>
+  </si>
+  <si>
+    <t>toFrom</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>TIM1</t>
+  </si>
+  <si>
+    <t>Screening timing</t>
+  </si>
+  <si>
+    <t>BEFORE</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>S2S</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>Pre dose timing</t>
+  </si>
+  <si>
+    <t>Pre dose</t>
+  </si>
+  <si>
+    <t>0..4 hours</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>Dosing anchor</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>24 Hour timing</t>
+  </si>
+  <si>
+    <t>AFTER</t>
+  </si>
+  <si>
+    <t>24 Hours</t>
+  </si>
+  <si>
+    <t>TIM5</t>
+  </si>
+  <si>
+    <t>Follow up timing</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>-3..3 days</t>
   </si>
 </sst>
 </file>
@@ -2137,7 +2216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2219,13 +2298,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2245,9 +2321,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2285,7 +2361,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2391,7 +2467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2533,7 +2609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2559,206 +2635,206 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C17" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="D17" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="E17" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C18" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="D18" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="E18" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C19" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="D19" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="E19" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -2767,6 +2843,192 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDE85A1-AB6F-844E-9505-028F2DF90CBB}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="E2" t="s">
+        <v>640</v>
+      </c>
+      <c r="F2" t="s">
+        <v>641</v>
+      </c>
+      <c r="G2" t="s">
+        <v>663</v>
+      </c>
+      <c r="H2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>664</v>
+      </c>
+      <c r="I3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D4" t="s">
+        <v>671</v>
+      </c>
+      <c r="E4" t="s">
+        <v>642</v>
+      </c>
+      <c r="F4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>673</v>
+      </c>
+      <c r="B5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C5" t="s">
+        <v>647</v>
+      </c>
+      <c r="D5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E5" t="s">
+        <v>643</v>
+      </c>
+      <c r="F5" t="s">
+        <v>642</v>
+      </c>
+      <c r="G5" t="s">
+        <v>676</v>
+      </c>
+      <c r="H5" t="s">
+        <v>664</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" t="s">
+        <v>675</v>
+      </c>
+      <c r="E6" t="s">
+        <v>644</v>
+      </c>
+      <c r="F6" t="s">
+        <v>642</v>
+      </c>
+      <c r="G6" t="s">
+        <v>679</v>
+      </c>
+      <c r="H6" t="s">
+        <v>664</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2785,38 +3047,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2828,7 +3090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB816BA-E6DF-9E47-812C-CA837B9CA1A1}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -2862,179 +3124,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="G2" t="s">
+        <v>607</v>
+      </c>
+      <c r="H2" t="s">
+        <v>608</v>
+      </c>
+      <c r="I2" t="s">
+        <v>609</v>
+      </c>
+      <c r="J2" t="s">
+        <v>610</v>
+      </c>
+      <c r="K2" t="s">
+        <v>611</v>
+      </c>
+      <c r="L2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M2" t="s">
+        <v>613</v>
+      </c>
+      <c r="N2" t="s">
+        <v>614</v>
+      </c>
+      <c r="O2" t="s">
+        <v>615</v>
+      </c>
+      <c r="P2" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" t="s">
         <v>617</v>
       </c>
-      <c r="C2" t="s">
+      <c r="S2" s="30" t="s">
         <v>618</v>
-      </c>
-      <c r="D2" t="s">
-        <v>619</v>
-      </c>
-      <c r="E2" t="s">
-        <v>620</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>621</v>
-      </c>
-      <c r="G2" t="s">
-        <v>622</v>
-      </c>
-      <c r="H2" t="s">
-        <v>623</v>
-      </c>
-      <c r="I2" t="s">
-        <v>624</v>
-      </c>
-      <c r="J2" t="s">
-        <v>625</v>
-      </c>
-      <c r="K2" t="s">
-        <v>626</v>
-      </c>
-      <c r="L2" t="s">
-        <v>627</v>
-      </c>
-      <c r="M2" t="s">
-        <v>628</v>
-      </c>
-      <c r="N2" t="s">
-        <v>629</v>
-      </c>
-      <c r="O2" t="s">
-        <v>630</v>
-      </c>
-      <c r="P2" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>174</v>
-      </c>
-      <c r="R2" t="s">
-        <v>632</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="C3" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="D3" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="E3" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="G3" t="s">
+        <v>607</v>
+      </c>
+      <c r="H3" t="s">
         <v>622</v>
       </c>
-      <c r="H3" t="s">
-        <v>637</v>
-      </c>
       <c r="I3" t="s">
+        <v>609</v>
+      </c>
+      <c r="J3" t="s">
+        <v>623</v>
+      </c>
+      <c r="K3" t="s">
         <v>624</v>
       </c>
-      <c r="J3" t="s">
-        <v>638</v>
-      </c>
-      <c r="K3" t="s">
-        <v>639</v>
-      </c>
       <c r="L3" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="M3" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="N3" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="O3" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="P3" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="Q3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="R3" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -3042,7 +3304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3059,44 +3321,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="C2" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="C3" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3104,11 +3366,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -3125,36 +3387,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="B2" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3163,29 +3425,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="B3" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="G3" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="B4" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="G4" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -3217,85 +3479,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3304,16 +3566,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3322,16 +3584,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3340,16 +3602,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3358,16 +3620,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3376,16 +3638,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3394,16 +3656,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3412,16 +3674,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3430,16 +3692,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3448,16 +3710,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3466,16 +3728,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3760,7 +4022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3780,90 +4042,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3871,7 +4133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3892,65 +4154,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3963,7 +4225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3983,137 +4245,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4122,7 +4384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4140,1354 +4402,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
-  <dimension ref="A1:D138"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="B103" s="23"/>
-      <c r="C103" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="B105" s="23"/>
-      <c r="C105" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="B106" s="23"/>
-      <c r="C106" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="B107" s="23"/>
-      <c r="C107" s="9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="B108" s="23"/>
-      <c r="C108" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B116" s="23"/>
-      <c r="C116" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="B117" s="23"/>
-      <c r="C117" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="B118" s="23"/>
-      <c r="C118" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="B119" s="23"/>
-      <c r="C119" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B120" s="23"/>
-      <c r="C120" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="B121" s="23"/>
-      <c r="C121" s="9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="B122" s="23"/>
-      <c r="C122" s="9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="B123" s="23"/>
-      <c r="C123" s="9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="B124" s="23"/>
-      <c r="C124" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="B125" s="23"/>
-      <c r="C125" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="B126" s="23"/>
-      <c r="C126" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="B128" s="23"/>
-      <c r="C128" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="B129" s="23"/>
-      <c r="C129" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="B130" s="23"/>
-      <c r="C130" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="10" t="s">
-        <v>532</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5516,22 +4528,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -5540,17 +4552,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -5559,17 +4571,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -5578,19 +4590,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -5599,17 +4611,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -5619,6 +4631,1256 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
+  <dimension ref="A1:D138"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B71" s="23"/>
+      <c r="C71" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B77" s="23"/>
+      <c r="C77" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B78" s="23"/>
+      <c r="C78" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B79" s="23"/>
+      <c r="C79" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B85" s="23"/>
+      <c r="C85" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B88" s="23"/>
+      <c r="C88" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B90" s="23"/>
+      <c r="C90" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B91" s="23"/>
+      <c r="C91" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B92" s="23"/>
+      <c r="C92" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B93" s="23"/>
+      <c r="C93" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B94" s="23"/>
+      <c r="C94" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B95" s="23"/>
+      <c r="C95" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B96" s="23"/>
+      <c r="C96" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B97" s="23"/>
+      <c r="C97" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B98" s="23"/>
+      <c r="C98" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B99" s="23"/>
+      <c r="C99" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B100" s="23"/>
+      <c r="C100" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B101" s="23"/>
+      <c r="C101" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B102" s="23"/>
+      <c r="C102" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B103" s="23"/>
+      <c r="C103" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B104" s="23"/>
+      <c r="C104" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B105" s="23"/>
+      <c r="C105" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B106" s="23"/>
+      <c r="C106" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B107" s="23"/>
+      <c r="C107" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B108" s="23"/>
+      <c r="C108" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="C109" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B110" s="23"/>
+      <c r="C110" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B111" s="23"/>
+      <c r="C111" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B112" s="23"/>
+      <c r="C112" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B113" s="23"/>
+      <c r="C113" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B115" s="23"/>
+      <c r="C115" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B116" s="23"/>
+      <c r="C116" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B117" s="23"/>
+      <c r="C117" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B118" s="23"/>
+      <c r="C118" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B119" s="23"/>
+      <c r="C119" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B120" s="23"/>
+      <c r="C120" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B121" s="23"/>
+      <c r="C121" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B122" s="23"/>
+      <c r="C122" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B123" s="23"/>
+      <c r="C123" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B124" s="23"/>
+      <c r="C124" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B125" s="23"/>
+      <c r="C125" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B126" s="23"/>
+      <c r="C126" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B127" s="23"/>
+      <c r="C127" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B128" s="23"/>
+      <c r="C128" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B129" s="23"/>
+      <c r="C129" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B130" s="23"/>
+      <c r="C130" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B131" s="23"/>
+      <c r="C131" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B132" s="23"/>
+      <c r="C132" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -5633,18 +5895,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5671,62 +5933,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -5751,10 +6013,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -5762,10 +6024,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -5773,43 +6035,43 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+        <v>32</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+        <v>33</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+        <v>34</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -5817,10 +6079,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -5828,10 +6090,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -5839,10 +6101,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -5850,7 +6112,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -5859,53 +6121,53 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5922,16 +6184,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5954,53 +6216,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -6031,65 +6293,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="C2" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="D2" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="F2" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="G2" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="C3" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="D3" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="F3" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="G3" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -6116,62 +6378,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="B2" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="C2" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="D2" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="E2" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="F2" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="E3" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="F3" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6196,57 +6458,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6262,13 +6524,13 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:B11"/>
+      <selection pane="bottomRight" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="10.83203125" style="1"/>
@@ -6276,252 +6538,243 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>450</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>645</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>646</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>647</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>21</v>
+        <v>523</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>648</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>647</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>649</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>649</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>649</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>649</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>4</v>
+        <v>650</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>641</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>642</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>643</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>644</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>201</v>
+        <v>653</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>199</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>200</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D8CFC2-2F49-984B-B722-AFCA68205D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FB83EF-DF03-DB45-BB29-3B2B589389E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53400" yWindow="5420" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="53400" yWindow="5420" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="680">
   <si>
     <t>Screening</t>
   </si>
@@ -1901,18 +1901,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -1949,12 +1943,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -2127,6 +2115,15 @@
   </si>
   <si>
     <t>-3..3 days</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2298,10 +2295,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2321,9 +2318,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2361,7 +2358,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2467,7 +2464,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2609,7 +2606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2846,7 +2843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDE85A1-AB6F-844E-9505-028F2DF90CBB}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2872,123 +2869,123 @@
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>655</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="G2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="H2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
+        <v>660</v>
+      </c>
+      <c r="I3" t="s">
         <v>664</v>
-      </c>
-      <c r="I3" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B4" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D4" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G4" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -2996,31 +2993,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B6" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C6" t="s">
         <v>198</v>
       </c>
       <c r="D6" t="s">
+        <v>671</v>
+      </c>
+      <c r="E6" t="s">
+        <v>640</v>
+      </c>
+      <c r="F6" t="s">
+        <v>638</v>
+      </c>
+      <c r="G6" t="s">
         <v>675</v>
       </c>
-      <c r="E6" t="s">
-        <v>644</v>
-      </c>
-      <c r="F6" t="s">
-        <v>642</v>
-      </c>
-      <c r="G6" t="s">
-        <v>679</v>
-      </c>
       <c r="H6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -3094,8 +3091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB816BA-E6DF-9E47-812C-CA837B9CA1A1}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3195,49 +3192,49 @@
         <v>604</v>
       </c>
       <c r="E2" t="s">
+        <v>677</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>605</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" t="s">
         <v>606</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I2" t="s">
         <v>607</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>608</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>609</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>610</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>611</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>612</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>613</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>614</v>
-      </c>
-      <c r="O2" t="s">
-        <v>615</v>
-      </c>
-      <c r="P2" t="s">
-        <v>616</v>
       </c>
       <c r="Q2" t="s">
         <v>161</v>
       </c>
       <c r="R2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -3245,58 +3242,58 @@
         <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D3" t="s">
         <v>604</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="G3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H3" t="s">
+        <v>679</v>
+      </c>
+      <c r="I3" t="s">
+        <v>607</v>
+      </c>
+      <c r="J3" t="s">
+        <v>619</v>
+      </c>
+      <c r="K3" t="s">
+        <v>620</v>
+      </c>
+      <c r="L3" t="s">
         <v>621</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>606</v>
-      </c>
-      <c r="G3" t="s">
-        <v>607</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>611</v>
+      </c>
+      <c r="N3" t="s">
+        <v>612</v>
+      </c>
+      <c r="O3" t="s">
+        <v>613</v>
+      </c>
+      <c r="P3" t="s">
         <v>622</v>
-      </c>
-      <c r="I3" t="s">
-        <v>609</v>
-      </c>
-      <c r="J3" t="s">
-        <v>623</v>
-      </c>
-      <c r="K3" t="s">
-        <v>624</v>
-      </c>
-      <c r="L3" t="s">
-        <v>625</v>
-      </c>
-      <c r="M3" t="s">
-        <v>613</v>
-      </c>
-      <c r="N3" t="s">
-        <v>614</v>
-      </c>
-      <c r="O3" t="s">
-        <v>615</v>
-      </c>
-      <c r="P3" t="s">
-        <v>626</v>
       </c>
       <c r="Q3" t="s">
         <v>161</v>
       </c>
       <c r="R3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -3387,7 +3384,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>450</v>
@@ -3399,13 +3396,13 @@
         <v>523</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>53</v>
@@ -3413,7 +3410,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B2" t="s">
         <v>565</v>
@@ -3430,24 +3427,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -4562,7 +4559,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -4581,7 +4578,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -4602,7 +4599,7 @@
         <v>549</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -6037,34 +6034,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -6184,16 +6181,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6547,19 +6544,19 @@
         <v>450</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -6576,13 +6573,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>198</v>
@@ -6599,7 +6596,7 @@
         <v>523</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -6608,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>198</v>
@@ -6620,46 +6617,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6671,7 +6668,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6693,7 +6690,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>183</v>

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FB83EF-DF03-DB45-BB29-3B2B589389E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28067E0D-D255-904D-8977-89347AA59453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53400" yWindow="5420" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="53400" yWindow="5420" windowWidth="33600" windowHeight="19480" firstSheet="9" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -241,9 +241,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Clinical status assessed using a 7-category ordinal scale at Day 28</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
   </si>
   <si>
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
   </si>
   <si>
     <t>Time to clinical improvement (TTCI) defined as a National Early Warning Score 2 (NEWS2) of &lt;=2 maintained for 24 hours</t>
@@ -2124,6 +2118,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2295,10 +2295,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2318,9 +2318,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2358,7 +2358,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2464,7 +2464,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2606,7 +2606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2632,10 +2632,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2672,63 +2672,63 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>17</v>
@@ -2736,102 +2736,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C17" t="s">
         <v>525</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" t="s">
         <v>526</v>
       </c>
-      <c r="C17" t="s">
-        <v>527</v>
-      </c>
-      <c r="D17" t="s">
-        <v>528</v>
-      </c>
       <c r="E17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F17" s="26">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D18" t="s">
         <v>530</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C18" t="s">
-        <v>531</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>532</v>
-      </c>
-      <c r="E18" t="s">
-        <v>534</v>
       </c>
       <c r="F18" s="26">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C19" t="s">
+        <v>529</v>
+      </c>
+      <c r="D19" t="s">
         <v>530</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C19" t="s">
-        <v>531</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>532</v>
-      </c>
-      <c r="E19" t="s">
-        <v>534</v>
       </c>
       <c r="F19" s="26">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -2857,135 +2857,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>653</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E2" t="s">
+        <v>634</v>
+      </c>
+      <c r="F2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G2" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2" t="s">
         <v>658</v>
-      </c>
-      <c r="E2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F2" t="s">
-        <v>637</v>
-      </c>
-      <c r="G2" t="s">
-        <v>659</v>
-      </c>
-      <c r="H2" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C3" t="s">
         <v>661</v>
       </c>
-      <c r="B3" t="s">
-        <v>662</v>
-      </c>
-      <c r="C3" t="s">
-        <v>663</v>
-      </c>
       <c r="D3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C4" t="s">
+        <v>640</v>
+      </c>
+      <c r="D4" t="s">
         <v>665</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>636</v>
+      </c>
+      <c r="F4" t="s">
+        <v>636</v>
+      </c>
+      <c r="G4" t="s">
         <v>666</v>
-      </c>
-      <c r="C4" t="s">
-        <v>642</v>
-      </c>
-      <c r="D4" t="s">
-        <v>667</v>
-      </c>
-      <c r="E4" t="s">
-        <v>638</v>
-      </c>
-      <c r="F4" t="s">
-        <v>638</v>
-      </c>
-      <c r="G4" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D5" t="s">
         <v>669</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>637</v>
+      </c>
+      <c r="F5" t="s">
+        <v>636</v>
+      </c>
+      <c r="G5" t="s">
         <v>670</v>
       </c>
-      <c r="C5" t="s">
-        <v>643</v>
-      </c>
-      <c r="D5" t="s">
-        <v>671</v>
-      </c>
-      <c r="E5" t="s">
-        <v>639</v>
-      </c>
-      <c r="F5" t="s">
-        <v>638</v>
-      </c>
-      <c r="G5" t="s">
-        <v>672</v>
-      </c>
       <c r="H5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -2993,31 +2993,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E6" t="s">
+        <v>638</v>
+      </c>
+      <c r="F6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G6" t="s">
         <v>673</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>658</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>674</v>
-      </c>
-      <c r="C6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" t="s">
-        <v>671</v>
-      </c>
-      <c r="E6" t="s">
-        <v>640</v>
-      </c>
-      <c r="F6" t="s">
-        <v>638</v>
-      </c>
-      <c r="G6" t="s">
-        <v>675</v>
-      </c>
-      <c r="H6" t="s">
-        <v>660</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -3044,16 +3044,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3061,7 +3061,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3069,13 +3069,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3091,7 +3091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB816BA-E6DF-9E47-812C-CA837B9CA1A1}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -3121,179 +3121,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>599</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D2" t="s">
         <v>602</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>603</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>604</v>
       </c>
-      <c r="E2" t="s">
-        <v>677</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="H2" t="s">
+        <v>676</v>
+      </c>
+      <c r="I2" t="s">
         <v>605</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>606</v>
       </c>
-      <c r="H2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>607</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>608</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>609</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>610</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>611</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>612</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" t="s">
         <v>613</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="30" t="s">
         <v>614</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>161</v>
-      </c>
-      <c r="R2" t="s">
-        <v>615</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="G3" t="s">
+        <v>604</v>
+      </c>
+      <c r="H3" t="s">
+        <v>677</v>
+      </c>
+      <c r="I3" t="s">
         <v>605</v>
       </c>
-      <c r="G3" t="s">
-        <v>606</v>
-      </c>
-      <c r="H3" t="s">
-        <v>679</v>
-      </c>
-      <c r="I3" t="s">
-        <v>607</v>
-      </c>
       <c r="J3" t="s">
+        <v>617</v>
+      </c>
+      <c r="K3" t="s">
+        <v>618</v>
+      </c>
+      <c r="L3" t="s">
         <v>619</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>609</v>
+      </c>
+      <c r="N3" t="s">
+        <v>610</v>
+      </c>
+      <c r="O3" t="s">
+        <v>611</v>
+      </c>
+      <c r="P3" t="s">
         <v>620</v>
       </c>
-      <c r="L3" t="s">
-        <v>621</v>
-      </c>
-      <c r="M3" t="s">
-        <v>611</v>
-      </c>
-      <c r="N3" t="s">
-        <v>612</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R3" t="s">
         <v>613</v>
       </c>
-      <c r="P3" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>161</v>
-      </c>
-      <c r="R3" t="s">
-        <v>615</v>
-      </c>
       <c r="S3" s="30" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -3318,13 +3318,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>48</v>
@@ -3332,13 +3332,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>49</v>
@@ -3346,13 +3346,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>50</v>
@@ -3384,25 +3384,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>53</v>
@@ -3410,10 +3410,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3427,24 +3427,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B4" t="s">
         <v>627</v>
       </c>
-      <c r="B4" t="s">
-        <v>629</v>
-      </c>
       <c r="G4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -3456,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3476,34 +3476,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>57</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>58</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>579</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>580</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>581</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>59</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -3519,42 +3519,42 @@
         <v>60</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>61</v>
+        <v>678</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>65</v>
+        <v>679</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3563,16 +3563,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3581,16 +3581,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3599,16 +3599,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3617,16 +3617,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3635,16 +3635,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3653,16 +3653,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3671,16 +3671,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3689,16 +3689,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3707,16 +3707,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3725,16 +3725,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4039,90 +4039,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>102</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
         <v>104</v>
-      </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
         <v>136</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>137</v>
       </c>
-      <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
         <v>138</v>
-      </c>
-      <c r="E5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4151,65 +4151,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" t="s">
         <v>156</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>160</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4242,137 +4242,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4399,104 +4399,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4525,22 +4525,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>540</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>541</v>
-      </c>
       <c r="F1" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -4549,17 +4549,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>543</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>545</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -4568,17 +4568,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -4587,19 +4587,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>549</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -4608,17 +4608,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -4645,16 +4645,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -4663,1212 +4663,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>519</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -5892,18 +5892,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
         <v>131</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5959,13 +5959,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5979,13 +5979,13 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -6010,10 +6010,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -6021,10 +6021,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -6034,41 +6034,41 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -6079,7 +6079,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -6090,7 +6090,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -6098,10 +6098,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
@@ -6138,16 +6138,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6155,16 +6155,16 @@
         <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6181,16 +6181,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6213,19 +6213,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>237</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6233,16 +6233,16 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6253,13 +6253,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -6290,65 +6290,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C2" t="s">
         <v>567</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" t="s">
         <v>568</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>569</v>
       </c>
-      <c r="D2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F2" t="s">
-        <v>571</v>
-      </c>
       <c r="G2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D3" t="s">
         <v>573</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>574</v>
       </c>
-      <c r="D3" t="s">
-        <v>575</v>
-      </c>
-      <c r="F3" t="s">
-        <v>576</v>
-      </c>
       <c r="G3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -6375,45 +6375,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>557</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" t="s">
         <v>560</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>561</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>562</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>563</v>
-      </c>
-      <c r="E2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F2" t="s">
-        <v>565</v>
       </c>
       <c r="G2" t="s">
         <v>52</v>
@@ -6421,13 +6421,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G3" t="s">
         <v>55</v>
@@ -6455,13 +6455,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>224</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6469,10 +6469,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6480,10 +6480,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6491,10 +6491,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6502,10 +6502,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6535,36 +6535,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>47</v>
@@ -6573,30 +6573,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>643</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -6605,10 +6605,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -6617,46 +6617,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>640</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6668,7 +6668,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6690,22 +6690,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6716,7 +6716,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28067E0D-D255-904D-8977-89347AA59453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D077AE4E-C57E-054E-9115-3A2B2F8D92A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53400" yWindow="5420" windowWidth="33600" windowHeight="19480" firstSheet="9" activeTab="14" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="53400" yWindow="5420" windowWidth="33600" windowHeight="19480" firstSheet="8" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="680">
   <si>
     <t>Screening</t>
   </si>
@@ -2295,10 +2295,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3456,7 +3456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -6034,34 +6034,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -6181,16 +6181,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6517,11 +6517,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" sqref="A1:H1048576"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6720,9 +6720,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -6746,9 +6744,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D077AE4E-C57E-054E-9115-3A2B2F8D92A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BCA680-9FDC-7145-AF65-0F5BCFC48FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53400" yWindow="5420" windowWidth="33600" windowHeight="19480" firstSheet="8" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="53400" yWindow="5420" windowWidth="33600" windowHeight="19480" firstSheet="8" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="683">
   <si>
     <t>Screening</t>
   </si>
@@ -2125,12 +2125,21 @@
   <si>
     <t>Secondary Objective</t>
   </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>ICE Text</t>
+  </si>
+  <si>
+    <t>populationSubset</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2156,14 +2165,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2213,7 +2214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2240,10 +2241,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2289,16 +2286,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2626,12 +2623,12 @@
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" style="25" customWidth="1"/>
+    <col min="5" max="6" width="24.6640625" style="23" customWidth="1"/>
     <col min="7" max="7" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>448</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -2639,7 +2636,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2647,15 +2644,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -2663,7 +2660,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2671,7 +2668,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2679,7 +2676,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2687,15 +2684,15 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2703,7 +2700,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2711,7 +2708,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2719,7 +2716,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2727,15 +2724,15 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2743,25 +2740,25 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -2781,7 +2778,7 @@
       <c r="E17" t="s">
         <v>531</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
@@ -2804,7 +2801,7 @@
       <c r="E18" t="s">
         <v>532</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
@@ -2827,7 +2824,7 @@
       <c r="E19" t="s">
         <v>532</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="24">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
@@ -3043,16 +3040,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3120,61 +3117,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>590</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>591</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="19" t="s">
         <v>597</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="19" t="s">
         <v>599</v>
       </c>
     </row>
@@ -3194,7 +3191,7 @@
       <c r="E2" t="s">
         <v>675</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="27" t="s">
         <v>603</v>
       </c>
       <c r="G2" t="s">
@@ -3233,7 +3230,7 @@
       <c r="R2" t="s">
         <v>613</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="28" t="s">
         <v>614</v>
       </c>
     </row>
@@ -3253,7 +3250,7 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="27" t="s">
         <v>603</v>
       </c>
       <c r="G3" t="s">
@@ -3292,7 +3289,7 @@
       <c r="R3" t="s">
         <v>613</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="28" t="s">
         <v>614</v>
       </c>
     </row>
@@ -3317,16 +3314,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3383,28 +3380,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3475,37 +3472,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>576</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>578</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>579</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4021,49 +4018,56 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+    <col min="3" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="61.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="19" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -4073,33 +4077,45 @@
       <c r="C2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>107</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>78</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>85</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
+      <c r="J2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
+      <c r="J3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -4109,20 +4125,26 @@
       <c r="C5" t="s">
         <v>102</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E5" t="s">
         <v>136</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>137</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>80</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>86</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>138</v>
+      </c>
+      <c r="J5" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -4153,22 +4175,22 @@
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4241,28 +4263,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4398,19 +4420,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4524,22 +4546,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>548</v>
       </c>
       <c r="G1" s="10"/>
@@ -4567,7 +4589,7 @@
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>540</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -4644,16 +4666,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4661,7 +4683,7 @@
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
         <v>252</v>
       </c>
@@ -4726,7 +4748,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>516</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -4756,7 +4778,7 @@
       <c r="A13" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
         <v>263</v>
       </c>
@@ -4765,7 +4787,7 @@
       <c r="A14" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="9" t="s">
         <v>264</v>
       </c>
@@ -4774,7 +4796,7 @@
       <c r="A15" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
         <v>265</v>
       </c>
@@ -4783,7 +4805,7 @@
       <c r="A16" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
         <v>266</v>
       </c>
@@ -4792,7 +4814,7 @@
       <c r="A17" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
         <v>267</v>
       </c>
@@ -4801,7 +4823,7 @@
       <c r="A18" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="9" t="s">
         <v>268</v>
       </c>
@@ -4810,7 +4832,7 @@
       <c r="A19" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="9" t="s">
         <v>269</v>
       </c>
@@ -4819,7 +4841,7 @@
       <c r="A20" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
         <v>256</v>
       </c>
@@ -4828,7 +4850,7 @@
       <c r="A21" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="9" t="s">
         <v>270</v>
       </c>
@@ -4837,7 +4859,7 @@
       <c r="A22" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="9" t="s">
         <v>271</v>
       </c>
@@ -4846,7 +4868,7 @@
       <c r="A23" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="9" t="s">
         <v>272</v>
       </c>
@@ -4858,7 +4880,7 @@
       <c r="A24" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="9" t="s">
         <v>273</v>
       </c>
@@ -4870,7 +4892,7 @@
       <c r="A25" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="9" t="s">
         <v>274</v>
       </c>
@@ -4879,7 +4901,7 @@
       <c r="A26" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="9" t="s">
         <v>275</v>
       </c>
@@ -4888,7 +4910,7 @@
       <c r="A27" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="9" t="s">
         <v>276</v>
       </c>
@@ -4897,7 +4919,7 @@
       <c r="A28" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="9" t="s">
         <v>277</v>
       </c>
@@ -4906,7 +4928,7 @@
       <c r="A29" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="9" t="s">
         <v>278</v>
       </c>
@@ -4915,7 +4937,7 @@
       <c r="A30" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="9" t="s">
         <v>279</v>
       </c>
@@ -4924,7 +4946,7 @@
       <c r="A31" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="9" t="s">
         <v>280</v>
       </c>
@@ -4933,7 +4955,7 @@
       <c r="A32" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="9" t="s">
         <v>281</v>
       </c>
@@ -4942,7 +4964,7 @@
       <c r="A33" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B33" s="23"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="9" t="s">
         <v>282</v>
       </c>
@@ -4951,7 +4973,7 @@
       <c r="A34" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="9" t="s">
         <v>283</v>
       </c>
@@ -4960,7 +4982,7 @@
       <c r="A35" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="9" t="s">
         <v>284</v>
       </c>
@@ -4969,7 +4991,7 @@
       <c r="A36" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="B36" s="23"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="9" t="s">
         <v>285</v>
       </c>
@@ -4978,7 +5000,7 @@
       <c r="A37" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="9" t="s">
         <v>286</v>
       </c>
@@ -4987,7 +5009,7 @@
       <c r="A38" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B38" s="23"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="9" t="s">
         <v>287</v>
       </c>
@@ -4996,7 +5018,7 @@
       <c r="A39" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="9" t="s">
         <v>288</v>
       </c>
@@ -5005,7 +5027,7 @@
       <c r="A40" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="9" t="s">
         <v>289</v>
       </c>
@@ -5014,7 +5036,7 @@
       <c r="A41" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="9" t="s">
         <v>290</v>
       </c>
@@ -5023,7 +5045,7 @@
       <c r="A42" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="9" t="s">
         <v>291</v>
       </c>
@@ -5032,7 +5054,7 @@
       <c r="A43" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B43" s="23"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="9" t="s">
         <v>292</v>
       </c>
@@ -5041,7 +5063,7 @@
       <c r="A44" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B44" s="23"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="9" t="s">
         <v>293</v>
       </c>
@@ -5053,7 +5075,7 @@
       <c r="A45" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B45" s="23"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="9" t="s">
         <v>294</v>
       </c>
@@ -5062,7 +5084,7 @@
       <c r="A46" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B46" s="23"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="9" t="s">
         <v>295</v>
       </c>
@@ -5071,7 +5093,7 @@
       <c r="A47" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B47" s="23"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="9" t="s">
         <v>296</v>
       </c>
@@ -5080,7 +5102,7 @@
       <c r="A48" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B48" s="23"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="9" t="s">
         <v>297</v>
       </c>
@@ -5089,7 +5111,7 @@
       <c r="A49" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="9" t="s">
         <v>298</v>
       </c>
@@ -5098,7 +5120,7 @@
       <c r="A50" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="B50" s="23"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="9" t="s">
         <v>299</v>
       </c>
@@ -5107,7 +5129,7 @@
       <c r="A51" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="9" t="s">
         <v>381</v>
       </c>
@@ -5116,7 +5138,7 @@
       <c r="A52" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="9" t="s">
         <v>300</v>
       </c>
@@ -5125,7 +5147,7 @@
       <c r="A53" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="9" t="s">
         <v>301</v>
       </c>
@@ -5134,7 +5156,7 @@
       <c r="A54" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="9" t="s">
         <v>302</v>
       </c>
@@ -5143,7 +5165,7 @@
       <c r="A55" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="B55" s="23"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="9" t="s">
         <v>303</v>
       </c>
@@ -5152,7 +5174,7 @@
       <c r="A56" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B56" s="23"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="9" t="s">
         <v>304</v>
       </c>
@@ -5161,7 +5183,7 @@
       <c r="A57" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B57" s="23"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="9" t="s">
         <v>305</v>
       </c>
@@ -5170,7 +5192,7 @@
       <c r="A58" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="B58" s="23"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="9" t="s">
         <v>306</v>
       </c>
@@ -5179,7 +5201,7 @@
       <c r="A59" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B59" s="23"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="9" t="s">
         <v>307</v>
       </c>
@@ -5188,7 +5210,7 @@
       <c r="A60" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B60" s="23"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="9" t="s">
         <v>308</v>
       </c>
@@ -5197,7 +5219,7 @@
       <c r="A61" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B61" s="23"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="9" t="s">
         <v>309</v>
       </c>
@@ -5206,7 +5228,7 @@
       <c r="A62" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="9" t="s">
         <v>310</v>
       </c>
@@ -5215,7 +5237,7 @@
       <c r="A63" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="B63" s="23"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="9" t="s">
         <v>311</v>
       </c>
@@ -5224,7 +5246,7 @@
       <c r="A64" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="B64" s="23"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="9" t="s">
         <v>312</v>
       </c>
@@ -5233,7 +5255,7 @@
       <c r="A65" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B65" s="23"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="9" t="s">
         <v>313</v>
       </c>
@@ -5242,7 +5264,7 @@
       <c r="A66" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="B66" s="23"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="9" t="s">
         <v>314</v>
       </c>
@@ -5251,7 +5273,7 @@
       <c r="A67" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B67" s="23"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="9" t="s">
         <v>315</v>
       </c>
@@ -5260,7 +5282,7 @@
       <c r="A68" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B68" s="23"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="9" t="s">
         <v>316</v>
       </c>
@@ -5269,7 +5291,7 @@
       <c r="A69" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B69" s="23"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="9" t="s">
         <v>317</v>
       </c>
@@ -5278,7 +5300,7 @@
       <c r="A70" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="B70" s="23"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="9" t="s">
         <v>318</v>
       </c>
@@ -5287,7 +5309,7 @@
       <c r="A71" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="B71" s="23"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="9" t="s">
         <v>319</v>
       </c>
@@ -5296,7 +5318,7 @@
       <c r="A72" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B72" s="23"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="9" t="s">
         <v>320</v>
       </c>
@@ -5305,7 +5327,7 @@
       <c r="A73" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B73" s="23"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="9" t="s">
         <v>321</v>
       </c>
@@ -5314,7 +5336,7 @@
       <c r="A74" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B74" s="23"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="9" t="s">
         <v>322</v>
       </c>
@@ -5323,7 +5345,7 @@
       <c r="A75" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="B75" s="23"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="9" t="s">
         <v>323</v>
       </c>
@@ -5332,7 +5354,7 @@
       <c r="A76" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B76" s="23"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="9" t="s">
         <v>324</v>
       </c>
@@ -5341,7 +5363,7 @@
       <c r="A77" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B77" s="23"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="9" t="s">
         <v>325</v>
       </c>
@@ -5350,7 +5372,7 @@
       <c r="A78" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B78" s="23"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="9" t="s">
         <v>326</v>
       </c>
@@ -5359,7 +5381,7 @@
       <c r="A79" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="B79" s="23"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="9" t="s">
         <v>327</v>
       </c>
@@ -5368,7 +5390,7 @@
       <c r="A80" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B80" s="23"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="9" t="s">
         <v>328</v>
       </c>
@@ -5377,7 +5399,7 @@
       <c r="A81" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B81" s="23"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="9" t="s">
         <v>329</v>
       </c>
@@ -5386,7 +5408,7 @@
       <c r="A82" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B82" s="23"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="9" t="s">
         <v>330</v>
       </c>
@@ -5395,7 +5417,7 @@
       <c r="A83" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B83" s="23"/>
+      <c r="B83" s="21"/>
       <c r="C83" s="9" t="s">
         <v>331</v>
       </c>
@@ -5404,7 +5426,7 @@
       <c r="A84" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B84" s="23"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="9" t="s">
         <v>332</v>
       </c>
@@ -5413,7 +5435,7 @@
       <c r="A85" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B85" s="23"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="9" t="s">
         <v>333</v>
       </c>
@@ -5422,7 +5444,7 @@
       <c r="A86" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B86" s="23"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="9" t="s">
         <v>334</v>
       </c>
@@ -5431,7 +5453,7 @@
       <c r="A87" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B87" s="23"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="9" t="s">
         <v>335</v>
       </c>
@@ -5440,7 +5462,7 @@
       <c r="A88" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="B88" s="23"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="9" t="s">
         <v>336</v>
       </c>
@@ -5449,7 +5471,7 @@
       <c r="A89" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="B89" s="23"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="9" t="s">
         <v>337</v>
       </c>
@@ -5458,7 +5480,7 @@
       <c r="A90" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="B90" s="23"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="9" t="s">
         <v>338</v>
       </c>
@@ -5467,7 +5489,7 @@
       <c r="A91" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B91" s="23"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="9" t="s">
         <v>339</v>
       </c>
@@ -5476,7 +5498,7 @@
       <c r="A92" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="B92" s="23"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="9" t="s">
         <v>340</v>
       </c>
@@ -5485,7 +5507,7 @@
       <c r="A93" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B93" s="23"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="9" t="s">
         <v>341</v>
       </c>
@@ -5494,7 +5516,7 @@
       <c r="A94" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B94" s="23"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="9" t="s">
         <v>342</v>
       </c>
@@ -5503,7 +5525,7 @@
       <c r="A95" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="B95" s="23"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="9" t="s">
         <v>343</v>
       </c>
@@ -5512,7 +5534,7 @@
       <c r="A96" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B96" s="23"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="9" t="s">
         <v>344</v>
       </c>
@@ -5521,7 +5543,7 @@
       <c r="A97" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="B97" s="23"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="9" t="s">
         <v>345</v>
       </c>
@@ -5530,7 +5552,7 @@
       <c r="A98" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B98" s="23"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="9" t="s">
         <v>346</v>
       </c>
@@ -5539,7 +5561,7 @@
       <c r="A99" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B99" s="23"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="9" t="s">
         <v>347</v>
       </c>
@@ -5548,7 +5570,7 @@
       <c r="A100" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B100" s="23"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="9" t="s">
         <v>348</v>
       </c>
@@ -5557,7 +5579,7 @@
       <c r="A101" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="B101" s="23"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="9" t="s">
         <v>349</v>
       </c>
@@ -5566,7 +5588,7 @@
       <c r="A102" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="B102" s="23"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="9" t="s">
         <v>350</v>
       </c>
@@ -5575,7 +5597,7 @@
       <c r="A103" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B103" s="23"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="9" t="s">
         <v>351</v>
       </c>
@@ -5584,7 +5606,7 @@
       <c r="A104" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B104" s="23"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="9" t="s">
         <v>352</v>
       </c>
@@ -5593,7 +5615,7 @@
       <c r="A105" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B105" s="23"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="9" t="s">
         <v>353</v>
       </c>
@@ -5602,7 +5624,7 @@
       <c r="A106" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B106" s="23"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="9" t="s">
         <v>354</v>
       </c>
@@ -5611,7 +5633,7 @@
       <c r="A107" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B107" s="23"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="9" t="s">
         <v>355</v>
       </c>
@@ -5620,7 +5642,7 @@
       <c r="A108" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B108" s="23"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="9" t="s">
         <v>356</v>
       </c>
@@ -5629,7 +5651,7 @@
       <c r="A109" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B109" s="23"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="9" t="s">
         <v>357</v>
       </c>
@@ -5638,7 +5660,7 @@
       <c r="A110" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B110" s="23"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="9" t="s">
         <v>358</v>
       </c>
@@ -5647,7 +5669,7 @@
       <c r="A111" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="B111" s="23"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="9" t="s">
         <v>359</v>
       </c>
@@ -5656,7 +5678,7 @@
       <c r="A112" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="B112" s="23"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="9" t="s">
         <v>360</v>
       </c>
@@ -5665,7 +5687,7 @@
       <c r="A113" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B113" s="23"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="9" t="s">
         <v>361</v>
       </c>
@@ -5674,7 +5696,7 @@
       <c r="A114" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B114" s="23"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="9" t="s">
         <v>362</v>
       </c>
@@ -5683,7 +5705,7 @@
       <c r="A115" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B115" s="23"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="9" t="s">
         <v>363</v>
       </c>
@@ -5692,7 +5714,7 @@
       <c r="A116" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B116" s="23"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="9" t="s">
         <v>364</v>
       </c>
@@ -5701,7 +5723,7 @@
       <c r="A117" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B117" s="23"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="9" t="s">
         <v>365</v>
       </c>
@@ -5710,7 +5732,7 @@
       <c r="A118" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B118" s="23"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="9" t="s">
         <v>366</v>
       </c>
@@ -5719,7 +5741,7 @@
       <c r="A119" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B119" s="23"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="9" t="s">
         <v>367</v>
       </c>
@@ -5728,7 +5750,7 @@
       <c r="A120" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B120" s="23"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="9" t="s">
         <v>368</v>
       </c>
@@ -5737,7 +5759,7 @@
       <c r="A121" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B121" s="23"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="9" t="s">
         <v>369</v>
       </c>
@@ -5746,7 +5768,7 @@
       <c r="A122" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="B122" s="23"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="9" t="s">
         <v>370</v>
       </c>
@@ -5755,7 +5777,7 @@
       <c r="A123" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B123" s="23"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="9" t="s">
         <v>371</v>
       </c>
@@ -5764,7 +5786,7 @@
       <c r="A124" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="B124" s="23"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="9" t="s">
         <v>372</v>
       </c>
@@ -5773,7 +5795,7 @@
       <c r="A125" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B125" s="23"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="9" t="s">
         <v>373</v>
       </c>
@@ -5782,7 +5804,7 @@
       <c r="A126" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B126" s="23"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="9" t="s">
         <v>374</v>
       </c>
@@ -5791,7 +5813,7 @@
       <c r="A127" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B127" s="23"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="9" t="s">
         <v>375</v>
       </c>
@@ -5800,7 +5822,7 @@
       <c r="A128" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B128" s="23"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="9" t="s">
         <v>376</v>
       </c>
@@ -5809,7 +5831,7 @@
       <c r="A129" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B129" s="23"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="9" t="s">
         <v>377</v>
       </c>
@@ -5818,7 +5840,7 @@
       <c r="A130" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B130" s="23"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="9" t="s">
         <v>378</v>
       </c>
@@ -5827,7 +5849,7 @@
       <c r="A131" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B131" s="23"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="9" t="s">
         <v>379</v>
       </c>
@@ -5836,7 +5858,7 @@
       <c r="A132" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B132" s="23"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="9" t="s">
         <v>380</v>
       </c>
@@ -5929,22 +5951,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6009,115 +6031,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>187</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -6181,16 +6203,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6212,19 +6234,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6289,25 +6311,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>554</v>
       </c>
     </row>
@@ -6374,25 +6396,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>557</v>
       </c>
     </row>
@@ -6454,13 +6476,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6517,8 +6539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="3" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
@@ -6534,13 +6556,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>448</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -6560,13 +6582,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -6586,13 +6608,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>148</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>521</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -6612,8 +6634,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -6633,8 +6655,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>644</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -6654,8 +6676,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>646</v>
       </c>
       <c r="D6" s="2"/>
@@ -6667,7 +6689,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>647</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -6689,7 +6711,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>648</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -6709,13 +6731,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>186</v>
       </c>
     </row>

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -1,39 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BCA680-9FDC-7145-AF65-0F5BCFC48FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AA4DC8-CA5B-EF44-BA75-2CADF11B4F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53400" yWindow="5420" windowWidth="33600" windowHeight="19480" firstSheet="8" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="50260" windowHeight="27180" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyAmendments" sheetId="18" r:id="rId2"/>
-    <sheet name="studyIdentifiers" sheetId="3" r:id="rId3"/>
-    <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
-    <sheet name="studyDesignArms" sheetId="15" r:id="rId5"/>
-    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId6"/>
-    <sheet name="dictionaries" sheetId="23" r:id="rId7"/>
-    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId8"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId9"/>
-    <sheet name="studyDesignTiming" sheetId="25" r:id="rId10"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId11"/>
-    <sheet name="studyDesignInterventions" sheetId="24" r:id="rId12"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId13"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId14"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId15"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId16"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId17"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId18"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId19"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId20"/>
-    <sheet name="configuration" sheetId="10" r:id="rId21"/>
+    <sheet name="studyOrganizations" sheetId="3" r:id="rId3"/>
+    <sheet name="studyIdentifiers" sheetId="26" r:id="rId4"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId5"/>
+    <sheet name="studyDesignArms" sheetId="15" r:id="rId6"/>
+    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId7"/>
+    <sheet name="dictionaries" sheetId="23" r:id="rId8"/>
+    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId9"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId10"/>
+    <sheet name="studyDesignTiming" sheetId="25" r:id="rId11"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId12"/>
+    <sheet name="studyDesignInterventions" sheetId="24" r:id="rId13"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId14"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId15"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId16"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId17"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId18"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId19"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId20"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId21"/>
+    <sheet name="configuration" sheetId="10" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="684">
   <si>
     <t>Screening</t>
   </si>
@@ -124,9 +125,6 @@
     <t>organisationType</t>
   </si>
   <si>
-    <t>studyIdentifier</t>
-  </si>
-  <si>
     <t>USGOV</t>
   </si>
   <si>
@@ -136,9 +134,6 @@
     <t>ClinicalTrials.gov</t>
   </si>
   <si>
-    <t>NCT12345678</t>
-  </si>
-  <si>
     <t>Simple Test 1</t>
   </si>
   <si>
@@ -179,9 +174,6 @@
   </si>
   <si>
     <t>ACME Pharma</t>
-  </si>
-  <si>
-    <t>AP1234</t>
   </si>
   <si>
     <t>organisationAddress</t>
@@ -2133,6 +2125,18 @@
   </si>
   <si>
     <t>populationSubset</t>
+  </si>
+  <si>
+    <t>ACME</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>NCT12345678</t>
+  </si>
+  <si>
+    <t>AP1234</t>
   </si>
 </sst>
 </file>
@@ -2292,10 +2296,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2629,10 +2633,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2640,7 +2644,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2656,7 +2660,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2664,68 +2668,68 @@
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>17</v>
@@ -2733,102 +2737,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C17" t="s">
+        <v>522</v>
+      </c>
+      <c r="D17" t="s">
         <v>523</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C17" t="s">
-        <v>525</v>
-      </c>
-      <c r="D17" t="s">
-        <v>526</v>
-      </c>
       <c r="E17" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F17" s="24">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D18" t="s">
+        <v>527</v>
+      </c>
+      <c r="E18" t="s">
         <v>529</v>
-      </c>
-      <c r="D18" t="s">
-        <v>530</v>
-      </c>
-      <c r="E18" t="s">
-        <v>532</v>
       </c>
       <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C19" t="s">
+        <v>526</v>
+      </c>
+      <c r="D19" t="s">
+        <v>527</v>
+      </c>
+      <c r="E19" t="s">
         <v>529</v>
-      </c>
-      <c r="D19" t="s">
-        <v>530</v>
-      </c>
-      <c r="E19" t="s">
-        <v>532</v>
       </c>
       <c r="F19" s="24">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -2837,6 +2841,266 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="3" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
+    <col min="4" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDE85A1-AB6F-844E-9505-028F2DF90CBB}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -2854,135 +3118,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>650</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" t="s">
+        <v>662</v>
+      </c>
+      <c r="E4" t="s">
+        <v>633</v>
+      </c>
+      <c r="F4" t="s">
+        <v>633</v>
+      </c>
+      <c r="G4" t="s">
         <v>663</v>
-      </c>
-      <c r="B4" t="s">
-        <v>664</v>
-      </c>
-      <c r="C4" t="s">
-        <v>640</v>
-      </c>
-      <c r="D4" t="s">
-        <v>665</v>
-      </c>
-      <c r="E4" t="s">
-        <v>636</v>
-      </c>
-      <c r="F4" t="s">
-        <v>636</v>
-      </c>
-      <c r="G4" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E5" t="s">
+        <v>634</v>
+      </c>
+      <c r="F5" t="s">
+        <v>633</v>
+      </c>
+      <c r="G5" t="s">
         <v>667</v>
       </c>
-      <c r="B5" t="s">
-        <v>668</v>
-      </c>
-      <c r="C5" t="s">
-        <v>641</v>
-      </c>
-      <c r="D5" t="s">
-        <v>669</v>
-      </c>
-      <c r="E5" t="s">
-        <v>637</v>
-      </c>
-      <c r="F5" t="s">
-        <v>636</v>
-      </c>
-      <c r="G5" t="s">
-        <v>670</v>
-      </c>
       <c r="H5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -2990,31 +3254,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B6" t="s">
+        <v>669</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>666</v>
+      </c>
+      <c r="E6" t="s">
+        <v>635</v>
+      </c>
+      <c r="F6" t="s">
+        <v>633</v>
+      </c>
+      <c r="G6" t="s">
+        <v>670</v>
+      </c>
+      <c r="H6" t="s">
+        <v>655</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>671</v>
-      </c>
-      <c r="B6" t="s">
-        <v>672</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" t="s">
-        <v>669</v>
-      </c>
-      <c r="E6" t="s">
-        <v>638</v>
-      </c>
-      <c r="F6" t="s">
-        <v>636</v>
-      </c>
-      <c r="G6" t="s">
-        <v>673</v>
-      </c>
-      <c r="H6" t="s">
-        <v>658</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -3022,7 +3286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3041,16 +3305,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3058,7 +3322,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3066,13 +3330,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3084,7 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB816BA-E6DF-9E47-812C-CA837B9CA1A1}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -3118,179 +3382,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>590</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>591</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>596</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>600</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>601</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>673</v>
+      </c>
+      <c r="I2" t="s">
         <v>602</v>
       </c>
-      <c r="E2" t="s">
-        <v>675</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="J2" t="s">
         <v>603</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>604</v>
       </c>
-      <c r="H2" t="s">
-        <v>676</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>605</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>606</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>607</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>608</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>609</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" t="s">
         <v>610</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" s="28" t="s">
         <v>611</v>
-      </c>
-      <c r="P2" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>159</v>
-      </c>
-      <c r="R2" t="s">
-        <v>613</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>600</v>
+      </c>
+      <c r="G3" t="s">
+        <v>601</v>
+      </c>
+      <c r="H3" t="s">
+        <v>674</v>
+      </c>
+      <c r="I3" t="s">
+        <v>602</v>
+      </c>
+      <c r="J3" t="s">
+        <v>614</v>
+      </c>
+      <c r="K3" t="s">
         <v>615</v>
       </c>
-      <c r="C3" t="s">
+      <c r="L3" t="s">
         <v>616</v>
       </c>
-      <c r="D3" t="s">
-        <v>602</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>603</v>
-      </c>
-      <c r="G3" t="s">
-        <v>604</v>
-      </c>
-      <c r="H3" t="s">
-        <v>677</v>
-      </c>
-      <c r="I3" t="s">
-        <v>605</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>606</v>
+      </c>
+      <c r="N3" t="s">
+        <v>607</v>
+      </c>
+      <c r="O3" t="s">
+        <v>608</v>
+      </c>
+      <c r="P3" t="s">
         <v>617</v>
       </c>
-      <c r="K3" t="s">
-        <v>618</v>
-      </c>
-      <c r="L3" t="s">
-        <v>619</v>
-      </c>
-      <c r="M3" t="s">
-        <v>609</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" t="s">
         <v>610</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" s="28" t="s">
         <v>611</v>
-      </c>
-      <c r="P3" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R3" t="s">
-        <v>613</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -3298,7 +3562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3315,44 +3579,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -3381,36 +3645,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3419,29 +3683,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -3449,7 +3713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -3473,85 +3737,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>577</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>578</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3560,16 +3824,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3578,16 +3842,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3596,16 +3860,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3614,16 +3878,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3632,16 +3896,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3650,16 +3914,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3668,16 +3932,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3686,16 +3950,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3704,16 +3968,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3722,16 +3986,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4016,11 +4280,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D5"/>
     </sheetView>
   </sheetViews>
@@ -4037,114 +4301,114 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>682</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>100</v>
-      </c>
       <c r="H1" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="E2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" t="s">
-        <v>104</v>
-      </c>
       <c r="J2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" t="s">
         <v>134</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" t="s">
-        <v>138</v>
-      </c>
       <c r="J5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -4152,7 +4416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -4173,65 +4437,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" t="s">
         <v>157</v>
-      </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4244,7 +4508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -4264,261 +4528,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="3" width="24.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4547,22 +4687,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>539</v>
-      </c>
       <c r="F1" s="26" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -4571,17 +4711,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -4590,17 +4730,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -4609,19 +4749,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -4630,17 +4770,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -4650,6 +4790,130 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="3" width="24.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
@@ -4667,16 +4931,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -4685,1212 +4949,1212 @@
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B69" s="21"/>
       <c r="C69" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B76" s="21"/>
       <c r="C76" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B77" s="21"/>
       <c r="C77" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B78" s="21"/>
       <c r="C78" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B80" s="21"/>
       <c r="C80" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B81" s="21"/>
       <c r="C81" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B82" s="21"/>
       <c r="C82" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B83" s="21"/>
       <c r="C83" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B85" s="21"/>
       <c r="C85" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B86" s="21"/>
       <c r="C86" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B87" s="21"/>
       <c r="C87" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B90" s="21"/>
       <c r="C90" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B92" s="21"/>
       <c r="C92" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B94" s="21"/>
       <c r="C94" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B95" s="21"/>
       <c r="C95" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B96" s="21"/>
       <c r="C96" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B97" s="21"/>
       <c r="C97" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B119" s="21"/>
       <c r="C119" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B126" s="21"/>
       <c r="C126" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B128" s="21"/>
       <c r="C128" s="9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B130" s="21"/>
       <c r="C130" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B131" s="21"/>
       <c r="C131" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B132" s="21"/>
       <c r="C132" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5899,7 +6163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -5914,18 +6178,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5938,15 +6202,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="2" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5961,53 +6224,53 @@
         <v>20</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>140</v>
-      </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>139</v>
-      </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -6016,6 +6279,47 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8009B034-E44B-9B44-B4CC-4EA8EC211588}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -6032,10 +6336,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -6043,10 +6347,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -6054,43 +6358,43 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+        <v>30</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+        <v>31</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+        <v>32</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -6098,10 +6402,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -6109,10 +6413,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -6120,10 +6424,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -6131,7 +6435,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -6140,10 +6444,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -6152,41 +6456,41 @@
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6203,22 +6507,22 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7FA707-26D8-0546-9A99-D418F7F4E088}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -6235,53 +6539,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -6292,7 +6596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED1B92D-F8EC-D24D-81E6-6B85449D22F0}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -6312,65 +6616,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D2" t="s">
         <v>565</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="F2" t="s">
         <v>566</v>
       </c>
-      <c r="C2" t="s">
-        <v>567</v>
-      </c>
-      <c r="D2" t="s">
-        <v>568</v>
-      </c>
-      <c r="F2" t="s">
-        <v>569</v>
-      </c>
       <c r="G2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F3" t="s">
         <v>571</v>
       </c>
-      <c r="C3" t="s">
-        <v>572</v>
-      </c>
-      <c r="D3" t="s">
-        <v>573</v>
-      </c>
-      <c r="F3" t="s">
-        <v>574</v>
-      </c>
       <c r="G3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -6378,7 +6682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB40753-8F7D-3941-9F21-F336F33F75CC}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -6397,62 +6701,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D2" t="s">
         <v>558</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>559</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>560</v>
       </c>
-      <c r="D2" t="s">
-        <v>561</v>
-      </c>
-      <c r="E2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F2" t="s">
-        <v>563</v>
-      </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -6460,7 +6764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1D5BD-3A57-0140-9167-DAF5A3D4D9EF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -6477,24 +6781,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6502,10 +6806,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6513,284 +6817,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="C4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="C5" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="C6" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13" t="s">
-        <v>648</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AA4DC8-CA5B-EF44-BA75-2CADF11B4F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFE93DE-AA17-CC4C-93C8-6B43DA479CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="50260" windowHeight="27180" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="50820" yWindow="500" windowWidth="50260" windowHeight="27180" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="685">
   <si>
     <t>Screening</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>interventionModel</t>
-  </si>
-  <si>
-    <t>trialTypes</t>
   </si>
   <si>
     <t>DUNS</t>
@@ -2137,6 +2134,12 @@
   </si>
   <si>
     <t>AP1234</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>spare</t>
   </si>
 </sst>
 </file>
@@ -2218,7 +2221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2294,12 +2297,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2618,7 +2615,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2633,10 +2630,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2660,7 +2657,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2668,68 +2665,68 @@
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>17</v>
@@ -2737,102 +2734,102 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>519</v>
-      </c>
       <c r="G16" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" t="s">
         <v>521</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>522</v>
       </c>
-      <c r="D17" t="s">
-        <v>523</v>
-      </c>
       <c r="E17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F17" s="24">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C18" t="s">
         <v>525</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>526</v>
       </c>
-      <c r="D18" t="s">
-        <v>527</v>
-      </c>
       <c r="E18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C19" t="s">
         <v>525</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>526</v>
       </c>
-      <c r="D19" t="s">
-        <v>527</v>
-      </c>
       <c r="E19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F19" s="24">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -2862,68 +2859,68 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>144</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>638</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -2932,58 +2929,58 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2995,7 +2992,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3017,22 +3014,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3043,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3052,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -3118,135 +3115,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B2" t="s">
         <v>651</v>
-      </c>
-      <c r="B2" t="s">
-        <v>652</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G2" t="s">
         <v>653</v>
       </c>
-      <c r="E2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F2" t="s">
-        <v>632</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>654</v>
-      </c>
-      <c r="H2" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B3" t="s">
         <v>656</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>657</v>
       </c>
-      <c r="C3" t="s">
-        <v>658</v>
-      </c>
       <c r="D3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F3" t="s">
         <v>632</v>
-      </c>
-      <c r="F3" t="s">
-        <v>633</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B4" t="s">
         <v>660</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>636</v>
+      </c>
+      <c r="D4" t="s">
         <v>661</v>
       </c>
-      <c r="C4" t="s">
-        <v>637</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F4" t="s">
+        <v>632</v>
+      </c>
+      <c r="G4" t="s">
         <v>662</v>
-      </c>
-      <c r="E4" t="s">
-        <v>633</v>
-      </c>
-      <c r="F4" t="s">
-        <v>633</v>
-      </c>
-      <c r="G4" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>663</v>
+      </c>
+      <c r="B5" t="s">
         <v>664</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D5" t="s">
         <v>665</v>
       </c>
-      <c r="C5" t="s">
-        <v>638</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F5" t="s">
+        <v>632</v>
+      </c>
+      <c r="G5" t="s">
         <v>666</v>
       </c>
-      <c r="E5" t="s">
-        <v>634</v>
-      </c>
-      <c r="F5" t="s">
-        <v>633</v>
-      </c>
-      <c r="G5" t="s">
-        <v>667</v>
-      </c>
       <c r="H5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3254,31 +3251,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B6" t="s">
         <v>668</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>665</v>
+      </c>
+      <c r="E6" t="s">
+        <v>634</v>
+      </c>
+      <c r="F6" t="s">
+        <v>632</v>
+      </c>
+      <c r="G6" t="s">
         <v>669</v>
       </c>
-      <c r="C6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" t="s">
-        <v>666</v>
-      </c>
-      <c r="E6" t="s">
-        <v>635</v>
-      </c>
-      <c r="F6" t="s">
-        <v>633</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>654</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>670</v>
-      </c>
-      <c r="H6" t="s">
-        <v>655</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -3305,16 +3302,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3322,7 +3319,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3330,13 +3327,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
         <v>245</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3382,179 +3379,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>590</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>591</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>595</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C2" t="s">
         <v>597</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>598</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>599</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>600</v>
+      </c>
+      <c r="H2" t="s">
         <v>672</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>600</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>601</v>
       </c>
-      <c r="H2" t="s">
-        <v>673</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>602</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>603</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>604</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>605</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>606</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>607</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>608</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" t="s">
         <v>609</v>
       </c>
-      <c r="Q2" t="s">
-        <v>156</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="28" t="s">
         <v>610</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C3" t="s">
         <v>612</v>
       </c>
-      <c r="C3" t="s">
-        <v>613</v>
-      </c>
       <c r="D3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="G3" t="s">
         <v>600</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>673</v>
+      </c>
+      <c r="I3" t="s">
         <v>601</v>
       </c>
-      <c r="H3" t="s">
-        <v>674</v>
-      </c>
-      <c r="I3" t="s">
-        <v>602</v>
-      </c>
       <c r="J3" t="s">
+        <v>613</v>
+      </c>
+      <c r="K3" t="s">
         <v>614</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>615</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>605</v>
+      </c>
+      <c r="N3" t="s">
+        <v>606</v>
+      </c>
+      <c r="O3" t="s">
+        <v>607</v>
+      </c>
+      <c r="P3" t="s">
         <v>616</v>
       </c>
-      <c r="M3" t="s">
-        <v>606</v>
-      </c>
-      <c r="N3" t="s">
-        <v>607</v>
-      </c>
-      <c r="O3" t="s">
-        <v>608</v>
-      </c>
-      <c r="P3" t="s">
-        <v>617</v>
-      </c>
       <c r="Q3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R3" t="s">
+        <v>609</v>
+      </c>
+      <c r="S3" s="28" t="s">
         <v>610</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -3579,44 +3576,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" t="s">
         <v>579</v>
       </c>
-      <c r="C2" t="s">
-        <v>580</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" t="s">
         <v>581</v>
       </c>
-      <c r="C3" t="s">
-        <v>582</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3645,36 +3642,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>619</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>620</v>
-      </c>
       <c r="G1" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3683,29 +3680,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B3" t="s">
         <v>622</v>
       </c>
-      <c r="B3" t="s">
-        <v>623</v>
-      </c>
       <c r="G3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -3737,85 +3734,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>573</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3824,16 +3821,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3842,16 +3839,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3860,16 +3857,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3878,16 +3875,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3896,16 +3893,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3914,16 +3911,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3932,16 +3929,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3950,16 +3947,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3968,16 +3965,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3986,16 +3983,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4301,114 +4298,114 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>96</v>
-      </c>
       <c r="J1" s="19" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" t="s">
-        <v>101</v>
-      </c>
       <c r="J2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="E5" t="s">
         <v>132</v>
       </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>133</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" t="s">
         <v>134</v>
       </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" t="s">
-        <v>135</v>
-      </c>
       <c r="J5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -4437,65 +4434,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" t="s">
         <v>154</v>
       </c>
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>156</v>
-      </c>
-      <c r="G3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4528,137 +4525,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4687,22 +4684,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>536</v>
-      </c>
       <c r="F1" s="26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -4711,17 +4708,17 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G2" s="10"/>
     </row>
@@ -4730,17 +4727,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -4749,19 +4746,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>544</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -4770,17 +4767,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>546</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>547</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G5" s="10"/>
     </row>
@@ -4807,104 +4804,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>187</v>
-      </c>
       <c r="D1" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4931,16 +4928,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>247</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -4949,1212 +4946,1212 @@
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>514</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B69" s="21"/>
       <c r="C69" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B76" s="21"/>
       <c r="C76" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B77" s="21"/>
       <c r="C77" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B78" s="21"/>
       <c r="C78" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B80" s="21"/>
       <c r="C80" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B81" s="21"/>
       <c r="C81" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B82" s="21"/>
       <c r="C82" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B83" s="21"/>
       <c r="C83" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B85" s="21"/>
       <c r="C85" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B86" s="21"/>
       <c r="C86" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B87" s="21"/>
       <c r="C87" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B90" s="21"/>
       <c r="C90" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B92" s="21"/>
       <c r="C92" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B94" s="21"/>
       <c r="C94" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B95" s="21"/>
       <c r="C95" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B96" s="21"/>
       <c r="C96" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B97" s="21"/>
       <c r="C97" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B119" s="21"/>
       <c r="C119" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B126" s="21"/>
       <c r="C126" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B128" s="21"/>
       <c r="C128" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B130" s="21"/>
       <c r="C130" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B131" s="21"/>
       <c r="C131" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B132" s="21"/>
       <c r="C132" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -6178,18 +6175,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -6224,13 +6221,13 @@
         <v>20</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6247,30 +6244,30 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>680</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -6282,7 +6279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8009B034-E44B-9B44-B4CC-4EA8EC211588}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6292,15 +6289,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -6308,10 +6305,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -6321,10 +6318,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6336,10 +6333,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -6347,10 +6344,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -6360,41 +6357,41 @@
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -6402,10 +6399,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>35</v>
+        <v>683</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -6416,7 +6413,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -6424,10 +6421,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -6435,88 +6432,122 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6539,19 +6570,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>233</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6559,16 +6590,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6579,13 +6610,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -6616,65 +6647,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>550</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" t="s">
         <v>563</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>564</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>565</v>
       </c>
-      <c r="F2" t="s">
-        <v>566</v>
-      </c>
       <c r="G2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" t="s">
         <v>568</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>569</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>570</v>
       </c>
-      <c r="F3" t="s">
-        <v>571</v>
-      </c>
       <c r="G3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -6701,62 +6732,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>553</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B2" t="s">
         <v>555</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>556</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>557</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>558</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>559</v>
       </c>
-      <c r="F2" t="s">
-        <v>560</v>
-      </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F3" t="s">
         <v>559</v>
       </c>
-      <c r="F3" t="s">
-        <v>560</v>
-      </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6781,13 +6812,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>220</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6795,10 +6826,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6806,10 +6837,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6817,10 +6848,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6828,10 +6859,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFE93DE-AA17-CC4C-93C8-6B43DA479CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328873A2-29CC-9C47-82FC-CDB8B4165BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50820" yWindow="500" windowWidth="50260" windowHeight="27180" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="50260" windowHeight="27180" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="689">
   <si>
     <t>Screening</t>
   </si>
@@ -2140,6 +2140,18 @@
   </si>
   <si>
     <t>spare</t>
+  </si>
+  <si>
+    <t>AMEND_1</t>
+  </si>
+  <si>
+    <t>AMEND_2</t>
+  </si>
+  <si>
+    <t>AMEND_3</t>
+  </si>
+  <si>
+    <t>AMEND_4</t>
   </si>
 </sst>
 </file>
@@ -4666,122 +4678,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11" style="7" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>531</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6320,7 +6356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -6535,11 +6571,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -6548,6 +6579,11 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328873A2-29CC-9C47-82FC-CDB8B4165BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601A8AB6-B262-7442-A4C2-6F1BCFE36B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="50260" windowHeight="27180" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="7" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2109,12 +2109,6 @@
     <t>NIMP (AxMP)</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>intercurrentEventText</t>
   </si>
   <si>
@@ -2152,6 +2146,12 @@
   </si>
   <si>
     <t>AMEND_4</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -3726,8 +3726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3789,7 +3789,7 @@
         <v>56</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>81</v>
@@ -3813,7 +3813,7 @@
         <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>82</v>
@@ -4319,7 +4319,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>94</v>
@@ -4337,7 +4337,7 @@
         <v>95</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4369,7 +4369,7 @@
         <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4377,7 +4377,7 @@
         <v>128</v>
       </c>
       <c r="J3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4385,7 +4385,7 @@
         <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4417,7 +4417,7 @@
         <v>134</v>
       </c>
       <c r="J5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -4680,7 +4680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -6294,7 +6294,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -6328,12 +6328,12 @@
         <v>549</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -6341,10 +6341,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>124</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -6571,6 +6571,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -6579,11 +6584,6 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/eligibility_criteria_1.xlsx
+++ b/tests/integration_test_files/eligibility_criteria_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601A8AB6-B262-7442-A4C2-6F1BCFE36B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A8058B-1B2E-1846-9EE5-537374B21871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="7" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -464,12 +464,6 @@
     <t>Really really bad shit</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
   </si>
   <si>
@@ -2152,6 +2146,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -2642,10 +2642,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2754,94 +2754,94 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C17" t="s">
         <v>519</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" t="s">
         <v>520</v>
       </c>
-      <c r="C17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D17" t="s">
-        <v>522</v>
-      </c>
       <c r="E17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F17" s="24">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C18" t="s">
+        <v>523</v>
+      </c>
+      <c r="D18" t="s">
         <v>524</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C18" t="s">
-        <v>525</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>526</v>
-      </c>
-      <c r="E18" t="s">
-        <v>528</v>
       </c>
       <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D19" t="s">
         <v>524</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C19" t="s">
-        <v>525</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>526</v>
-      </c>
-      <c r="E19" t="s">
-        <v>528</v>
       </c>
       <c r="F19" s="24">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -2871,36 +2871,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>43</v>
@@ -2909,30 +2909,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>637</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -2941,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2953,46 +2953,46 @@
         <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>634</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3004,7 +3004,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3026,22 +3026,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3052,7 +3052,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3127,135 +3127,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>647</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="E2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G2" t="s">
+        <v>651</v>
+      </c>
+      <c r="H2" t="s">
         <v>652</v>
-      </c>
-      <c r="E2" t="s">
-        <v>630</v>
-      </c>
-      <c r="F2" t="s">
-        <v>631</v>
-      </c>
-      <c r="G2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H2" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C3" t="s">
         <v>655</v>
       </c>
-      <c r="B3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C3" t="s">
-        <v>657</v>
-      </c>
       <c r="D3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D4" t="s">
         <v>659</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F4" t="s">
+        <v>630</v>
+      </c>
+      <c r="G4" t="s">
         <v>660</v>
-      </c>
-      <c r="C4" t="s">
-        <v>636</v>
-      </c>
-      <c r="D4" t="s">
-        <v>661</v>
-      </c>
-      <c r="E4" t="s">
-        <v>632</v>
-      </c>
-      <c r="F4" t="s">
-        <v>632</v>
-      </c>
-      <c r="G4" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D5" t="s">
         <v>663</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>631</v>
+      </c>
+      <c r="F5" t="s">
+        <v>630</v>
+      </c>
+      <c r="G5" t="s">
         <v>664</v>
       </c>
-      <c r="C5" t="s">
-        <v>637</v>
-      </c>
-      <c r="D5" t="s">
-        <v>665</v>
-      </c>
-      <c r="E5" t="s">
-        <v>633</v>
-      </c>
-      <c r="F5" t="s">
-        <v>632</v>
-      </c>
-      <c r="G5" t="s">
-        <v>666</v>
-      </c>
       <c r="H5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3263,31 +3263,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>665</v>
+      </c>
+      <c r="B6" t="s">
+        <v>666</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" t="s">
+        <v>663</v>
+      </c>
+      <c r="E6" t="s">
+        <v>632</v>
+      </c>
+      <c r="F6" t="s">
+        <v>630</v>
+      </c>
+      <c r="G6" t="s">
         <v>667</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>652</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>668</v>
-      </c>
-      <c r="C6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" t="s">
-        <v>665</v>
-      </c>
-      <c r="E6" t="s">
-        <v>634</v>
-      </c>
-      <c r="F6" t="s">
-        <v>632</v>
-      </c>
-      <c r="G6" t="s">
-        <v>669</v>
-      </c>
-      <c r="H6" t="s">
-        <v>654</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -3314,16 +3314,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3331,7 +3331,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3339,13 +3339,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3391,61 +3391,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>42</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>586</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>590</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>591</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>593</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -3453,58 +3453,58 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D2" t="s">
         <v>596</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>598</v>
       </c>
-      <c r="E2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="H2" t="s">
+        <v>670</v>
+      </c>
+      <c r="I2" t="s">
         <v>599</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>600</v>
       </c>
-      <c r="H2" t="s">
-        <v>672</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>601</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>602</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>603</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>604</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>605</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>606</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" t="s">
         <v>607</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="28" t="s">
         <v>608</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>155</v>
-      </c>
-      <c r="R2" t="s">
-        <v>609</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -3512,58 +3512,58 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="27" t="s">
+        <v>597</v>
+      </c>
+      <c r="G3" t="s">
+        <v>598</v>
+      </c>
+      <c r="H3" t="s">
+        <v>671</v>
+      </c>
+      <c r="I3" t="s">
         <v>599</v>
       </c>
-      <c r="G3" t="s">
-        <v>600</v>
-      </c>
-      <c r="H3" t="s">
-        <v>673</v>
-      </c>
-      <c r="I3" t="s">
-        <v>601</v>
-      </c>
       <c r="J3" t="s">
+        <v>611</v>
+      </c>
+      <c r="K3" t="s">
+        <v>612</v>
+      </c>
+      <c r="L3" t="s">
         <v>613</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>603</v>
+      </c>
+      <c r="N3" t="s">
+        <v>604</v>
+      </c>
+      <c r="O3" t="s">
+        <v>605</v>
+      </c>
+      <c r="P3" t="s">
         <v>614</v>
       </c>
-      <c r="L3" t="s">
-        <v>615</v>
-      </c>
-      <c r="M3" t="s">
-        <v>605</v>
-      </c>
-      <c r="N3" t="s">
-        <v>606</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R3" t="s">
         <v>607</v>
       </c>
-      <c r="P3" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>155</v>
-      </c>
-      <c r="R3" t="s">
-        <v>609</v>
-      </c>
       <c r="S3" s="28" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -3588,13 +3588,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>44</v>
@@ -3605,10 +3605,10 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>45</v>
@@ -3619,10 +3619,10 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>46</v>
@@ -3654,25 +3654,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>49</v>
@@ -3680,10 +3680,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3697,24 +3697,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" t="s">
         <v>621</v>
       </c>
-      <c r="B4" t="s">
-        <v>623</v>
-      </c>
       <c r="G4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -3726,7 +3726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -3752,10 +3752,10 @@
         <v>52</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>53</v>
@@ -3767,13 +3767,13 @@
         <v>54</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>573</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>575</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>55</v>
@@ -3789,7 +3789,7 @@
         <v>56</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>81</v>
@@ -3813,7 +3813,7 @@
         <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>82</v>
@@ -4319,7 +4319,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>94</v>
@@ -4337,7 +4337,7 @@
         <v>95</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
         <v>98</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E2" t="s">
         <v>99</v>
@@ -4369,7 +4369,7 @@
         <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4377,7 +4377,7 @@
         <v>128</v>
       </c>
       <c r="J3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4385,7 +4385,7 @@
         <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4399,7 +4399,7 @@
         <v>98</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E5" t="s">
         <v>132</v>
@@ -4417,7 +4417,7 @@
         <v>134</v>
       </c>
       <c r="J5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -4449,62 +4449,62 @@
         <v>72</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" t="s">
         <v>150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>154</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4540,134 +4540,134 @@
         <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4696,37 +4696,37 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>535</v>
-      </c>
       <c r="I1" s="26" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -4734,85 +4734,85 @@
         <v>4</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>537</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>539</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>543</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J5" s="10"/>
     </row>
@@ -4843,101 +4843,101 @@
         <v>72</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4964,16 +4964,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -4982,1212 +4982,1212 @@
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B69" s="21"/>
       <c r="C69" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B76" s="21"/>
       <c r="C76" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B77" s="21"/>
       <c r="C77" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B78" s="21"/>
       <c r="C78" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B80" s="21"/>
       <c r="C80" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B81" s="21"/>
       <c r="C81" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B82" s="21"/>
       <c r="C82" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B83" s="21"/>
       <c r="C83" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B85" s="21"/>
       <c r="C85" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B86" s="21"/>
       <c r="C86" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B87" s="21"/>
       <c r="C87" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B90" s="21"/>
       <c r="C90" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B92" s="21"/>
       <c r="C92" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B94" s="21"/>
       <c r="C94" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B95" s="21"/>
       <c r="C95" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B96" s="21"/>
       <c r="C96" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B97" s="21"/>
       <c r="C97" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B119" s="21"/>
       <c r="C119" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B126" s="21"/>
       <c r="C126" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B128" s="21"/>
       <c r="C128" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B130" s="21"/>
       <c r="C130" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B131" s="21"/>
       <c r="C131" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B132" s="21"/>
       <c r="C132" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -6234,8 +6234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6257,7 +6257,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>21</v>
@@ -6280,10 +6280,10 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>688</v>
       </c>
       <c r="F2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6294,16 +6294,16 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>687</v>
       </c>
       <c r="F3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -6325,15 +6325,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -6341,10 +6341,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -6369,10 +6369,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -6380,10 +6380,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -6394,7 +6394,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -6405,7 +6405,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>124</v>
@@ -6457,10 +6457,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>28</v>
@@ -6528,16 +6528,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -6545,16 +6545,16 @@
         <v>27</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -6571,11 +6571,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -6584,6 +6579,11 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6606,19 +6606,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6626,16 +6626,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6646,13 +6646,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -6683,65 +6683,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C2" t="s">
         <v>561</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" t="s">
         <v>562</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>563</v>
       </c>
-      <c r="D2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F2" t="s">
-        <v>565</v>
-      </c>
       <c r="G2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D3" t="s">
         <v>567</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>568</v>
       </c>
-      <c r="D3" t="s">
-        <v>569</v>
-      </c>
-      <c r="F3" t="s">
-        <v>570</v>
-      </c>
       <c r="G3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -6768,45 +6768,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>72</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C2" t="s">
         <v>554</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>555</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>556</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>557</v>
-      </c>
-      <c r="E2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F2" t="s">
-        <v>559</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
@@ -6814,13 +6814,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G3" t="s">
         <v>51</v>
@@ -6848,13 +6848,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6862,10 +6862,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6873,10 +6873,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6884,10 +6884,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6895,10 +6895,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
